--- a/4.0test3_fp_django4.0AI/avg.xlsx
+++ b/4.0test3_fp_django4.0AI/avg.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,37 +373,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.01,1.02|0.97,0.98|0.982,0.9835|</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9992337757225183</v>
+        <v>1.020671834625323</v>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.03,1.04</t>
+          <t>0.99,1.00|0.99,1.00|1.013,1.014|</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9985138252376342</v>
+        <v>0.9961759082217972</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.95,0.96</t>
+          <t>1.0,1.01|0.99,1.00|1.006,1.007|</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.002631578947369</v>
+        <v>1.009280742459397</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -412,11 +412,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.90,0.91</t>
+          <t>0.98,0.99|0.96,0.97|0.900,0.901|</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9679300291545189</v>
+        <v>0.9938837920489296</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -425,102 +425,102 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.96,0.97</t>
+          <t>1.00,1.01|0.99,1.00|1.0,1.001|</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9964479245014209</v>
+        <v>0.9952203136669155</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>1.0,1.01|0.98,0.99|1.0,1.001|</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9962475049073287</v>
+        <v>1.031331592689295</v>
       </c>
       <c r="C7" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.06,1.07</t>
+          <t>1.02,1.03|1.01,1.02|0.972,0.973|</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9810645021838618</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.0,1.01|0.99,1.00|1.040,1.041|</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.000370057870916</v>
+        <v>1.069486404833837</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.00,1.01|0.97,0.98|1.016,1.017|</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9947962540812327</v>
+        <v>0.9972222222222221</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.04,1.05</t>
+          <t>0.99,1.00|0.97,0.98|0.984,0.985|</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9821295713746453</v>
+        <v>0.9946091644204852</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.98,0.99|1.00,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.003193687986455</v>
+        <v>0.9973753280839894</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.93,0.9400000000000001</t>
+          <t>1.01,1.02|1.00,1.01|0.976,0.977|</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.004149377593361</v>
+        <v>1.021052631578947</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -529,24 +529,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.02,1.03|0.997,0.998|</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.000028246951345</v>
+        <v>1.001282051282051</v>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.91,0.92</t>
+          <t>1.00,1.01|1.01,1.02|0.982,0.983|</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.007575757575758</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -555,26 +555,2574 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.01,1.02|1.05,1.06|0.983,0.984|</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.004581838812895</v>
+        <v>1.010309278350515</v>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.05,1.06</t>
+          <t>0.97,0.98|1.00,1.01|1.031,1.032|</t>
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0.9871134020618557</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.010,1.011|</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.005221932114883</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1.0,1.01|0.99,1.00|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0078125</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.97,0.98|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.028497409326425</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.97,0.98|0.985,0.986|</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9943019943019944</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.0,1.01|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.010526315789474</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1.0,1.01|1.01,1.02|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.002202643171806</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.99,1.00|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9800498753117208</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1.0,1.01|1.02,1.03|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.061624649859944</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|1.011,1.012|</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.0,1.01|1.004,1.005|</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.016042780748663</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.0,1.01|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9844444444444443</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|0.967,0.968|</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.020671834625323</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1.03,1.04|0.96,0.97|1.014,1.015|</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.998015873015873</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0.97,0.98|0.99,1.00|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9800443458980045</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0.96,0.97|1.00,1.01|0.912,0.913|</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.007772020725389</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9865642994241842</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.98,0.99|1.009,1.010|</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.97,0.98|1.044,1.045|</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9124423963133641</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|0.970,0.971|</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.011142061281337</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|1.020,1.021|</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.040712468193384</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|1.020,1.021|</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.98,0.99|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9973821989528796</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.97,0.98|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.98,0.99|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9853331480580838</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|1.008,1.009|</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.008264462809917</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.0,1.01|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.013054830287206</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.010,1.011|</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1.002570694087404</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.98,0.99|0.967,0.968|</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.009230769230769</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.96,0.97|0.993,0.994|</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|1.010,1.011|</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1.028205128205128</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.01,1.02|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9845360824742267</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9791271347248578</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1.010526315789474</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1.03,1.04|0.99,1.00|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.992462311557789</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.981,0.982|</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9974160206718345</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>0.93,0.94|0.98,0.99|0.996,0.997|</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.004149377593361</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9873865559144747</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9874371859296482</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|1.013,1.014|</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1.00531914893617</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.007792207792208</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9923273657289002</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.96,0.97|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1.013953488372093</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|1.006,1.007|</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9918367346938776</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.01,1.02|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9643652561247216</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.91,0.92|0.993,0.994|</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9674185463659147</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9664634146341464</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|0.975,0.976|</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9720101781170483</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.99,1.00|0.977,0.978|</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9823677581863979</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1.0,1.01|1.02,1.03|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9845758354755784</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.98,0.99|0.995,0.996|</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9647302904564315</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.02,1.03|1.010,1.011|</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9790575916230367</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9870466321243524</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>0.96,0.97|0.99,1.00|1.015,1.016|</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9930715935334873</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0.95,0.96|1.01,1.02|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.002631578947369</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1.0,1.01|0.98,0.99|1.028,1.029|</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1.015267175572519</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.00,1.01|0.952,0.953|</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.99,1.00|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.007594936708861</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.06,1.07|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9972972972972972</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.96,0.97|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9948586118251928</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1.06,1.07|1.0,1.01|1.022,1.023|</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9762532981530343</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.996,0.997|</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9942084942084943</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1.015317286652079</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.0,1.01|1.012,1.013|</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1.002570694087404</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1.0,1.01|1.02,1.03|1.013,1.014|</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9822784810126581</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|0.976,0.977|</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1.052341597796143</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1.0,1.01|0.98,0.99|0.977,0.978|</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9765013054830287</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.0,1.01|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1.00968992248062</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.03,1.04|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9773299748110831</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9934065934065933</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>0.97,0.98|0.98,0.99|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.013089005235602</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.98,0.99|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1.015801354401806</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.04,1.05|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9931350114416475</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>0.96,0.97|0.98,0.99|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9948453608247423</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.01,1.02|0.993,0.994|</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1.002247191011236</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1.0,1.01|0.99,1.00|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1.007894736842105</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|1.008,1.009|</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9938144329896909</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.04,1.05|1.012,1.013|</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|0.991,0.992|</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9836512261580381</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>0.91,0.92|0.99,1.00|0.979,0.980|</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1.007575757575758</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|0.962,0.963|</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1.020997375328084</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|1.027,1.028|</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9975728155339806</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.98,0.99|1.004,1.005|</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1.011061946902655</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|0.980,0.981|</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9977777777777779</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|1.017,1.018|</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1.002433090024331</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.9947916666666666</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.93,0.94|0.986,0.987|</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1.010330578512397</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9948320413436692</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1.05,1.06|0.98,0.99|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
         <v>1.015706806282723</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.02,1.03|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1.012953367875648</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.02,1.03|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1.004347826086957</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1.0,1.01|0.98,0.99|0.964,0.965|</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0.96,0.97|1.01,1.02|0.989,0.990|</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9947916666666666</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1.04,1.05|0.98,0.99|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9755501222493889</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1.031088082901555</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.03,1.04|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1.0,1.01|0.99,1.00|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.9877450980392157</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.96,0.97|1.009,1.010|</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1.040498442367601</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.01,1.02|1.016,1.017|</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1.005305039787799</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.0,1.01|0.980,0.981|</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1.006976744186047</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.0,1.01|1.020,1.021|</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1.007731958762887</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.01,1.02|0.979,0.980|</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0.96,0.97|0.99,1.00|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9870967741935482</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1.0,1.01|0.98,0.99|0.976,0.977|</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9728506787330317</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1.04,1.05|1.00,1.01|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.9798206278026906</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.0,1.01|0.980,0.981|</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.00,1.01|1.011,1.012|</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1.013368983957219</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.01,1.02|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1.002577319587629</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1.0,1.01|1.01,1.02|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.9948849104859335</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.0,1.01|1.011,1.012|</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1.001945525291829</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.0,1.01|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.9974293059125964</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1.0,1.01|0.99,1.00|1.031,1.032|</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.9898734177215189</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.97,0.98|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1.003009680113999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9377431906614787</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.04,1.05|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1.00250626566416</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|0.937,0.938|</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9897750511247444</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.021,1.022|</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.9848484848484848</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>0.96,0.97|1.00,1.01|0.993,0.994|</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1.012618296529968</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|0.979,0.980|</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.994579945799458</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>0.97,0.98|0.98,0.99|1.021,1.022|</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9919786096256684</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.01,1.02|0.993,0.994|</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1.004310344827586</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.00,1.01|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9871244635193132</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|1.020,1.021|</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.01,1.02|1.015,1.016|</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9949261612078212</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.97,0.98|1.061,1.062|</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.983739837398374</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.03,1.04|0.966,0.967|</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1.001988071570576</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9923076923076923</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>0.96,0.97|0.90,0.91|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9849397590361446</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9922279792746115</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|1.009,1.010|</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9838337182448036</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.989,0.990|</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1.002044989775051</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|0.964,0.965|</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1.020642201834862</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.01,1.02|1.004,1.005|</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1.006198347107438</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.0,1.01|1.006,1.007|</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9959432048681542</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.00,1.01|1.015,1.016|</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9974160206718345</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.028,1.029|</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1.017902813299233</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.02,1.03|0.977,0.978|</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.02,1.03|1.008,1.009|</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1.007915567282322</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.95,0.96|1.015,1.016|</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1.020997375328084</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|0.982,0.983|</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1.027638190954774</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|0.969,0.970|</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9002624671916011</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1.005208333333333</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|0.998,0.999|</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9980430528375732</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|1.015,1.016|</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1.002597402597402</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.981958762886598</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.0,1.01|0.995,0.996|</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1.009195402298851</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.06,1.07|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9770773638968481</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1.001941747572815</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.97,0.98|1.024,1.025|</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9701086956521738</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1.04,1.05|1.01,1.02|0.966,0.967|</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9910179640718564</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.0,1.01|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.9877834400563548</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.032,1.033|</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1.013888888888889</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.97,0.98|1.040,1.041|</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9825</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9894179894179895</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.01,1.02|1.009,1.010|</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1.015503875968992</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.004,1.005|</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.9994367847165899</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>1.03,1.04|1.0,1.01|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1.005063291139241</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|1.013,1.014|</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1.0,1.01|1.00,1.01|1.015,1.016|</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.9914163090128755</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1.0,1.01|1.01,1.02|0.998,0.999|</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.9961240310077518</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.01,1.02|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1.004889975550122</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.013,1.014|</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1.0078125</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1.006592904457522</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.97,0.98|0.991,0.992|</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|1.021,1.022|</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.9842931937172775</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.01,1.02|1.052,1.053|</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.9974489795918368</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.96,0.97|1.012,1.013|</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.9973821989528796</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.010,1.011|</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1.000734126876629</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>1.0,1.01|0.98,0.99|0.986,0.987|</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1.002347417840376</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.0,1.01|0.983,0.984|</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1.044496487119438</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.9961240310077519</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.01,1.02|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1.011764705882353</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>0.97,0.98|0.98,0.99|1.069,1.070|</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1.029325513196481</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.0,1.01|1.017,1.018|</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1.002197802197802</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>1.06,1.07|1.0,1.01|0.991,0.992|</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.9858757062146893</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>1.0,1.01|1.0,1.01|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.9803921568627452</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|0.972,0.973|</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1.024930747922438</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.96,0.97|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.9870466321243524</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.01,1.02|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.9922680412371134</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>1.0,1.01|0.99,1.00|1.029,1.030|</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1.022922636103152</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.02,1.03|0.983,0.984|</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1.016574585635359</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|1.013,1.014|</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1.017937219730942</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1.021857923497268</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.97,0.98|1.011,1.012|</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1.013358778625954</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.01,1.02|0.989,0.990|</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.9817708333333334</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>1.0,1.01|1.00,1.01|0.991,0.992|</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1.008179959100205</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>0.90,0.91|0.99,1.00|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.9679300291545189</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.0,1.001|</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.9877800407331975</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.01,1.02|0.978,0.979|</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1.008403361344538</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>1.0,1.01|1.00,1.01|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1.01038961038961</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.01,1.02|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1.007874015748031</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.0,1.01|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1.005347593582887</v>
+      </c>
+      <c r="C213" t="n">
         <v>1</v>
       </c>
     </row>

--- a/4.0test3_fp_django4.0AI/avg.xlsx
+++ b/4.0test3_fp_django4.0AI/avg.xlsx
@@ -429,10 +429,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9952203136669155</v>
+        <v>1.00681702330893</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9872881355932204</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9973753280839894</v>
+        <v>0.9891999980078392</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9800498753117208</v>
+        <v>0.9983196896929426</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0.9989979959919839</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -806,10 +806,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9865642994241842</v>
+        <v>0.9952557309649738</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.008264462809917</v>
+        <v>1.017626437391683</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.002570694087404</v>
+        <v>1.001285347043702</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.028205128205128</v>
+        <v>1.027311957448944</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.00531914893617</v>
+        <v>1.007766826766349</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9643652561247216</v>
+        <v>0.9906996621304971</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9948586118251928</v>
+        <v>0.9920052427962255</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9942084942084943</v>
+        <v>0.9978812059281273</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9836512261580381</v>
+        <v>0.9960599108912985</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9975728155339806</v>
+        <v>0.9928340268146093</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0.9974693418783387</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.031088082901555</v>
+        <v>1.006409807932112</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1.001945525291829</v>
+        <v>1.005206462899936</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.9922279792746115</v>
+        <v>0.9999787239368227</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.9838337182448036</v>
+        <v>0.9993311315969152</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -2301,10 +2301,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1.002044989775051</v>
+        <v>0.9926891615541922</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0.9955312810327706</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1.001941747572815</v>
+        <v>0.9931123276174489</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.9894179894179895</v>
+        <v>1.000383227018741</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1.015503875968992</v>
+        <v>1.001773335089594</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.9994367847165899</v>
+        <v>0.9993912597900664</v>
       </c>
       <c r="C176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1.029325513196481</v>
+        <v>1.014168685451995</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.9817708333333334</v>
+        <v>0.9918894327309238</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.9877800407331975</v>
+        <v>0.9883803784933205</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -3120,10 +3120,10 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1.005347593582887</v>
+        <v>1.008943389267933</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/4.0test3_fp_django4.0AI/avg.xlsx
+++ b/4.0test3_fp_django4.0AI/avg.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,11 +373,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.97,0.98|0.982,0.9835|</t>
+          <t>1.00,1.01|1.02,1.03|0.983,0.984|</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.020671834625323</v>
+        <v>1.00738</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -386,11 +386,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.013,1.014|</t>
+          <t>0.96,0.97|0.98,0.99|1.000,1.001|</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9961759082217972</v>
+        <v>0.994845</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -399,11 +399,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|1.006,1.007|</t>
+          <t>0.97,0.98|1.02,1.03|0.983,0.984|</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.009280742459397</v>
+        <v>1.01657</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -412,11 +412,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.96,0.97|0.900,0.901|</t>
+          <t>0.97,0.98|1.00,1.01|0.976,0.977|</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9938837920489296</v>
+        <v>1.00489</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -425,24 +425,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.0,1.001|</t>
+          <t>1.01,1.02|1.02,1.03|0.968,0.969|</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.00681702330893</v>
+        <v>1.02082</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|1.0,1.001|</t>
+          <t>0.97,0.98|1.00,1.01|1.012,1.013|</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.031331592689295</v>
+        <v>0.9846549999999999</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -451,24 +451,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.01,1.02|0.972,0.973|</t>
+          <t>1.00,1.01|0.91,0.92|0.993,0.994|</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9872881355932204</v>
+        <v>0.967419</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|1.040,1.041|</t>
+          <t>1.00,1.01|1.00,1.01|0.983,0.984|</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.069486404833837</v>
+        <v>1.0445</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -477,11 +477,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.016,1.017|</t>
+          <t>1.06,1.07|0.98,0.99|1.007,1.008|</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9972222222222221</v>
+        <v>0.99137</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -490,11 +490,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.97,0.98|0.984,0.985|</t>
+          <t>0.98,0.99|1.00,1.01|0.994,0.995|</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9946091644204852</v>
+        <v>0.994792</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -503,24 +503,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.992,0.993|</t>
+          <t>0.97,0.98|1.00,1.01|1.031,1.032|</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9891999980078392</v>
+        <v>0.987113</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.976,0.977|</t>
+          <t>1.02,1.03|1.00,1.01|0.979,0.980|</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.021052631578947</v>
+        <v>0.964216</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -529,24 +529,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.02,1.03|0.997,0.998|</t>
+          <t>0.99,1.00|1.00,1.01|0.967,0.968|</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.001282051282051</v>
+        <v>1.02067</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.982,0.983|</t>
+          <t>0.98,0.99|1.00,1.01|0.973,0.974|</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.986193</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -555,37 +555,37 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.05,1.06|0.983,0.984|</t>
+          <t>0.99,1.00|0.99,1.00|1.002,1.003|</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.010309278350515</v>
+        <v>1.00779</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|1.031,1.032|</t>
+          <t>1.00,1.01|1.00,1.01|0.989,0.990|</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9871134020618557</v>
+        <v>0.9926915000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.010,1.011|</t>
+          <t>0.98,0.99|1.00,1.01|0.964,0.965|</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.005221932114883</v>
+        <v>0.973081</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -594,24 +594,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|1.001,1.002|</t>
+          <t>1.02,1.03|0.98,0.99|0.994,0.995|</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.0078125</v>
+        <v>0.985333</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.97,0.98|1.005,1.006|</t>
+          <t>0.97,0.98|0.98,0.99|0.976,0.977|</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.028497409326425</v>
+        <v>1.00201</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -620,11 +620,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.97,0.98|0.985,0.986|</t>
+          <t>0.99,1.00|1.03,1.04|0.966,0.967|</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9943019943019944</v>
+        <v>1.00199</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -633,11 +633,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.0,1.01|0.994,0.995|</t>
+          <t>1.00,1.01|0.99,1.00|1.006,1.007|</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>1.00928</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -646,11 +646,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.984,0.985|</t>
+          <t>0.99,1.00|1.01,1.02|0.983,0.984|</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.010526315789474</v>
+        <v>1.00512</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -659,11 +659,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.01,1.02|1.002,1.003|</t>
+          <t>1.01,1.02|0.98,0.99|1.001,1.002|</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.002202643171806</v>
+        <v>0.9912879999999999</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -672,24 +672,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.99,1.00|0.997,0.998|</t>
+          <t>0.97,0.98|1.01,1.02|1.024,1.025|</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9983196896929426</v>
+        <v>1.01533</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.02,1.03|1.0,1.001|</t>
+          <t>0.99,1.00|1.00,1.01|0.986,0.987|</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.061624649859944</v>
+        <v>1.00858</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -698,11 +698,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.011,1.012|</t>
+          <t>0.99,1.00|1.00,1.01|1.007,1.008|</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9989979959919839</v>
+        <v>1.006411</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -711,11 +711,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.0,1.01|1.004,1.005|</t>
+          <t>1.01,1.02|1.00,1.01|0.998,0.999|</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.998043</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -724,11 +724,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.984,0.985|</t>
+          <t>0.99,1.00|1.04,1.05|1.020,1.021|</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.016042780748663</v>
+        <v>1.03138</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -737,11 +737,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.0,1.01|1.0,1.001|</t>
+          <t>0.99,1.00|0.99,1.00|1.006,1.007|</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9844444444444443</v>
+        <v>1.01201</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -750,11 +750,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.967,0.968|</t>
+          <t>0.99,1.00|0.99,1.00|1.013,1.014|</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.020671834625323</v>
+        <v>0.996176</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -763,24 +763,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1.03,1.04|0.96,0.97|1.014,1.015|</t>
+          <t>0.99,1.00|0.99,1.00|0.991,0.992|</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.998015873015873</v>
+        <v>0.9960605</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.99,1.00|1.0,1.001|</t>
+          <t>1.02,1.03|0.97,0.98|0.990,0.991|</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9800443458980045</v>
+        <v>1.05219</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -789,11 +789,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0.96,0.97|1.00,1.01|0.912,0.913|</t>
+          <t>0.97,0.98|0.99,1.00|1.008,1.009|</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.007772020725389</v>
+        <v>0.995449</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -802,24 +802,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.992,0.993|</t>
+          <t>0.98,0.99|0.98,0.99|1.000,1.001|</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9952557309649738</v>
+        <v>1.0158</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.98,0.99|1.009,1.010|</t>
+          <t>1.02,1.03|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0.990282</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -828,11 +828,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.97,0.98|1.044,1.045|</t>
+          <t>1.01,1.02|0.98,0.99|0.986,0.987|</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9124423963133641</v>
+        <v>0.985075</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -841,11 +841,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.970,0.971|</t>
+          <t>1.00,1.01|0.98,0.99|1.021,1.022|</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.011142061281337</v>
+        <v>0.9848479999999999</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -854,11 +854,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|1.020,1.021|</t>
+          <t>0.99,1.00|0.99,1.00|1.005,1.006|</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.040712468193384</v>
+        <v>0.9990830000000001</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -867,11 +867,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|1.020,1.021|</t>
+          <t>1.04,1.05|0.98,0.99|1.007,1.008|</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0.97555</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -880,24 +880,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|1.002,1.003|</t>
+          <t>0.98,0.99|0.99,1.00|0.992,0.993|</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9973821989528796</v>
+        <v>0.937743</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.97,0.98|1.005,1.006|</t>
+          <t>1.01,1.02|0.98,0.99|1.007,1.008|</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>1.00274</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -906,37 +906,37 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.98,0.99|0.994,0.995|</t>
+          <t>1.00,1.01|0.98,0.99|0.993,0.994|</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9853331480580838</v>
+        <v>1.00791</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|1.008,1.009|</t>
+          <t>0.96,0.97|1.03,1.04|0.988,0.989|</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.017626437391683</v>
+        <v>1.03596</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|0.997,0.998|</t>
+          <t>1.00,1.01|1.00,1.01|1.010,1.011|</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.013054830287206</v>
+        <v>0.9990019999999999</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -945,24 +945,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.010,1.011|</t>
+          <t>1.06,1.07|1.00,1.01|1.022,1.023|</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.001285347043702</v>
+        <v>0.976253</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|0.967,0.968|</t>
+          <t>0.99,1.00|1.00,1.01|1.028,1.029|</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.009230769230769</v>
+        <v>0.990909</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -971,11 +971,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.96,0.97|0.993,0.994|</t>
+          <t>0.98,0.99|0.99,1.00|0.979,0.980|</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>1.01402</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -984,24 +984,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.010,1.011|</t>
+          <t>1.01,1.02|0.99,1.00|1.024,1.025|</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.027311957448944</v>
+        <v>1.00422</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.01,1.02|1.005,1.006|</t>
+          <t>1.02,1.03|0.99,1.00|1.008,1.009|</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9845360824742267</v>
+        <v>0.9809</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -1010,11 +1010,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|1.007,1.008|</t>
+          <t>1.00,1.01|0.98,0.99|1.000,1.001|</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9791271347248578</v>
+        <v>1.03133</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1023,24 +1023,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|1.005,1.006|</t>
+          <t>1.00,1.01|0.96,0.97|1.007,1.008|</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.010526315789474</v>
+        <v>0.9920055000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1.03,1.04|0.99,1.00|1.007,1.008|</t>
+          <t>1.02,1.03|0.98,0.99|1.023,1.024|</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.992462311557789</v>
+        <v>1.00931</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1049,24 +1049,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.981,0.982|</t>
+          <t>1.00,1.01|0.99,1.00|0.999,1.000|</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9974160206718345</v>
+        <v>0.9935733333333333</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0.93,0.94|0.98,0.99|0.996,0.997|</t>
+          <t>0.99,1.00|1.00,1.01|0.980,0.981|</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.004149377593361</v>
+        <v>0.986341</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1075,24 +1075,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|1.0,1.001|</t>
+          <t>1.01,1.02|0.97,0.98|1.000,1.001|</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9873865559144747</v>
+        <v>0.995872</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|0.994,0.995|</t>
+          <t>0.98,0.99|0.99,1.00|0.962,0.963|</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9874371859296482</v>
+        <v>1.021</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1101,37 +1101,37 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|1.013,1.014|</t>
+          <t>0.96,0.97|1.02,1.03|1.000,1.001|</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.007766826766349</v>
+        <v>1.02497</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.002,1.003|</t>
+          <t>0.98,0.99|1.01,1.02|0.984,0.985|</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.007792207792208</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|0.992,0.993|</t>
+          <t>0.99,1.00|1.04,1.05|1.012,1.013|</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9923273657289002</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1140,11 +1140,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.96,0.97|0.997,0.998|</t>
+          <t>0.98,0.99|0.97,0.98|1.012,1.013|</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.013953488372093</v>
+        <v>1.00318</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1153,11 +1153,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.006,1.007|</t>
+          <t>0.99,1.00|1.02,1.03|1.012,1.013|</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9918367346938776</v>
+        <v>0.9799369999999999</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1166,24 +1166,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|0.984,0.985|</t>
+          <t>0.98,0.99|0.96,0.97|0.900,0.901|</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9906996621304971</v>
+        <v>0.993884</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.91,0.92|0.993,0.994|</t>
+          <t>0.99,1.00|1.00,1.01|1.015,1.016|</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9674185463659147</v>
+        <v>1.00301</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1192,11 +1192,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.984,0.985|</t>
+          <t>0.98,0.99|0.97,0.98|0.991,0.992|</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9664634146341464</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1205,11 +1205,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.975,0.976|</t>
+          <t>0.98,0.99|0.96,0.97|0.993,0.994|</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9720101781170483</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1218,24 +1218,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.99,1.00|0.977,0.978|</t>
+          <t>1.00,1.01|1.00,1.01|1.027,1.028|</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9823677581863979</v>
+        <v>0.992834</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.02,1.03|1.002,1.003|</t>
+          <t>0.99,1.00|0.99,1.00|0.970,0.971|</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9845758354755784</v>
+        <v>0.98503</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1244,24 +1244,24 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|0.995,0.996|</t>
+          <t>1.00,1.01|1.00,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9647302904564315</v>
+        <v>1.005875</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.02,1.03|1.010,1.011|</t>
+          <t>0.99,1.00|1.01,1.02|1.006,1.007|</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9790575916230367</v>
+        <v>0.987375</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1270,11 +1270,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.992,0.993|</t>
+          <t>0.98,0.99|1.06,1.07|1.000,1.001|</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9870466321243524</v>
+        <v>0.977077</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1283,11 +1283,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0.96,0.97|0.99,1.00|1.015,1.016|</t>
+          <t>1.01,1.02|0.98,0.99|0.980,0.981|</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9930715935334873</v>
+        <v>0.9977780000000001</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1296,11 +1296,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0.95,0.96|1.01,1.02|1.0,1.001|</t>
+          <t>1.04,1.05|0.98,0.99|1.001,1.002|</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.002631578947369</v>
+        <v>0.95928</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1309,11 +1309,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|1.028,1.029|</t>
+          <t>1.01,1.02|1.03,1.04|0.966,0.967|</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.015267175572519</v>
+        <v>0.981077</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1322,11 +1322,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.00,1.01|0.952,0.953|</t>
+          <t>1.01,1.02|1.02,1.03|1.011,1.012|</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>1.0025</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1335,11 +1335,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.99,1.00|1.007,1.008|</t>
+          <t>0.97,0.98|0.98,0.99|1.007,1.008|</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.007594936708861</v>
+        <v>1.01025</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1348,76 +1348,76 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.06,1.07|1.0,1.001|</t>
+          <t>0.99,1.00|0.98,0.99|1.015,1.016|</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9972972972972972</v>
+        <v>0.987988</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.96,0.97|1.007,1.008|</t>
+          <t>0.99,1.00|1.00,1.01|1.022,1.023|</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9920052427962255</v>
+        <v>1.00194</v>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1.06,1.07|1.0,1.01|1.022,1.023|</t>
+          <t>0.99,1.00|0.97,0.98|0.990,0.991|</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9762532981530343</v>
+        <v>1.010651</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.996,0.997|</t>
+          <t>1.01,1.02|0.99,1.00|1.020,1.021|</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9978812059281273</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|0.984,0.985|</t>
+          <t>1.00,1.01|1.01,1.02|0.995,0.996|</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1.015317286652079</v>
+        <v>1.004595</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.0,1.01|1.012,1.013|</t>
+          <t>1.01,1.02|0.98,0.99|1.004,1.005|</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.002570694087404</v>
+        <v>0.9878670000000001</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1426,11 +1426,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.02,1.03|1.013,1.014|</t>
+          <t>1.00,1.01|0.98,0.99|0.974,0.975|</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9822784810126581</v>
+        <v>1.00814</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1439,11 +1439,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|0.976,0.977|</t>
+          <t>1.02,1.03|1.00,1.01|0.952,0.953|</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1.052341597796143</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -1452,24 +1452,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|0.977,0.978|</t>
+          <t>0.99,1.00|1.00,1.01|0.994,0.995|</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9765013054830287</v>
+        <v>0.9955315</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|0.992,0.993|</t>
+          <t>0.96,0.97|1.00,1.01|1.005,1.006|</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.00968992248062</v>
+        <v>1.00795</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1478,11 +1478,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.03,1.04|1.0,1.001|</t>
+          <t>0.99,1.00|1.03,1.04|0.997,0.998|</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9773299748110831</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1491,11 +1491,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.987,0.988|</t>
+          <t>1.01,1.02|0.99,1.00|0.992,0.993|</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9934065934065933</v>
+        <v>0.992327</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -1504,24 +1504,24 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.98,0.99|1.002,1.003|</t>
+          <t>0.98,0.99|1.01,1.02|0.999,1.000|</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1.013089005235602</v>
+        <v>0.9947045</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.98,0.99|1.0,1.001|</t>
+          <t>0.97,0.98|1.00,1.01|1.008,1.009|</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1.015801354401806</v>
+        <v>1.00574</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1530,11 +1530,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.04,1.05|1.002,1.003|</t>
+          <t>1.00,1.01|0.99,1.00|1.020,1.021|</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9931350114416475</v>
+        <v>0.993097</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1543,11 +1543,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0.96,0.97|0.98,0.99|1.0,1.001|</t>
+          <t>0.97,0.98|1.00,1.01|0.983,0.984|</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9948453608247423</v>
+        <v>0.983885</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1556,11 +1556,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.01,1.02|0.993,0.994|</t>
+          <t>0.98,0.99|1.00,1.01|1.002,1.003|</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1.002247191011236</v>
+        <v>0.997382</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1569,11 +1569,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|0.987,0.988|</t>
+          <t>1.00,1.01|1.05,1.06|1.011,1.012|</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1.007894736842105</v>
+        <v>0.986916</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1582,11 +1582,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|1.008,1.009|</t>
+          <t>1.00,1.01|1.00,1.01|1.003,1.004|</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9938144329896909</v>
+        <v>1.03243</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -1595,11 +1595,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.04,1.05|1.012,1.013|</t>
+          <t>0.98,0.99|0.98,0.99|1.018,1.019|</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>1.01331</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -1608,24 +1608,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.991,0.992|</t>
+          <t>0.99,1.00|1.00,1.01|0.981,0.982|</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9960599108912985</v>
+        <v>1.00081</v>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0.91,0.92|0.99,1.00|0.979,0.980|</t>
+          <t>0.98,0.99|1.00,1.01|0.991,0.992|</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.007575757575758</v>
+        <v>1.01616</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -1634,11 +1634,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|0.962,0.963|</t>
+          <t>1.01,1.02|1.00,1.01|0.980,0.981|</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1.020997375328084</v>
+        <v>0.952381</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1647,24 +1647,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.027,1.028|</t>
+          <t>0.97,0.98|0.99,1.00|0.955,0.956|</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9928340268146093</v>
+        <v>0.989945</v>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|1.004,1.005|</t>
+          <t>1.00,1.01|1.01,1.02|1.010,1.011|</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1.011061946902655</v>
+        <v>0.991549</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1673,11 +1673,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|0.980,0.981|</t>
+          <t>1.00,1.01|1.00,1.01|1.017,1.018|</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9977777777777779</v>
+        <v>1.0022</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1686,37 +1686,37 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.002,1.003|</t>
+          <t>1.04,1.05|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9974693418783387</v>
+        <v>0.9798210000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|1.017,1.018|</t>
+          <t>1.00,1.01|1.01,1.02|0.994,0.995|</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1.002433090024331</v>
+        <v>0.999979</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.994,0.995|</t>
+          <t>1.05,1.06|0.98,0.99|0.997,0.998|</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9947916666666666</v>
+        <v>1.01571</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -1725,11 +1725,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.93,0.94|0.986,0.987|</t>
+          <t>1.03,1.04|0.98,0.99|0.959,0.960|</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1.010330578512397</v>
+        <v>0.966716</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1738,11 +1738,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.002,1.003|</t>
+          <t>0.99,1.00|1.02,1.03|1.008,1.009|</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9948320413436692</v>
+        <v>1.00896</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -1751,11 +1751,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1.05,1.06|0.98,0.99|0.997,0.998|</t>
+          <t>1.01,1.02|1.02,1.03|1.008,1.009|</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1.015706806282723</v>
+        <v>1.00792</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1764,11 +1764,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.02,1.03|0.987,0.988|</t>
+          <t>0.98,0.99|0.98,0.99|0.982,0.983|</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1.012953367875648</v>
+        <v>0.987743</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -1777,24 +1777,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.02,1.03|1.002,1.003|</t>
+          <t>1.00,1.01|1.00,1.01|1.009,1.010|</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1.004347826086957</v>
+        <v>0.9979960000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|0.964,0.965|</t>
+          <t>0.99,1.00|0.98,0.99|0.995,0.996|</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0.96473</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1803,11 +1803,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0.96,0.97|1.01,1.02|0.989,0.990|</t>
+          <t>0.99,1.00|0.99,1.00|0.987,0.988|</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9947916666666666</v>
+        <v>1.02368</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -1816,11 +1816,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1.04,1.05|0.98,0.99|1.007,1.008|</t>
+          <t>1.01,1.02|1.00,1.01|1.011,1.012|</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.9755501222493889</v>
+        <v>0.977245</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -1829,24 +1829,24 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.007,1.008|</t>
+          <t>0.99,1.00|1.02,1.03|1.004,1.005|</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.006409807932112</v>
+        <v>0.988125</v>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.03,1.04|0.997,0.998|</t>
+          <t>0.98,0.99|1.00,1.01|0.986,0.987|</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>1.04245</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -1855,11 +1855,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|0.997,0.998|</t>
+          <t>0.98,0.99|1.01,1.02|1.004,1.005|</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.9877450980392157</v>
+        <v>1.0062</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1868,37 +1868,37 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.96,0.97|1.009,1.010|</t>
+          <t>0.99,1.00|0.99,1.00|1.008,1.009|</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1.040498442367601</v>
+        <v>1.0001585</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.01,1.02|1.016,1.017|</t>
+          <t>1.00,1.01|1.00,1.01|0.997,0.998|</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1.005305039787799</v>
+        <v>1.002679</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.0,1.01|0.980,0.981|</t>
+          <t>0.98,0.99|1.02,1.03|1.002,1.003|</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1.006976744186047</v>
+        <v>1.00435</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -1907,24 +1907,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.0,1.01|1.020,1.021|</t>
+          <t>1.00,1.01|0.99,1.00|0.988,0.989|</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1.007731958762887</v>
+        <v>1.0037</v>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.01,1.02|0.979,0.980|</t>
+          <t>1.01,1.02|1.00,1.01|0.989,0.990|</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.992467043314501</v>
+        <v>0.993399</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -1933,11 +1933,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0.96,0.97|0.99,1.00|0.987,0.988|</t>
+          <t>1.02,1.03|1.01,1.02|0.987,0.988|</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.9870967741935482</v>
+        <v>1.00451</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -1946,11 +1946,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|0.976,0.977|</t>
+          <t>1.03,1.04|0.99,1.00|0.971,0.972|</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.9728506787330317</v>
+        <v>0.966744</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -1959,11 +1959,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1.04,1.05|1.00,1.01|1.0,1.001|</t>
+          <t>0.98,0.99|1.02,1.03|1.018,1.019|</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.9798206278026906</v>
+        <v>1.02775</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -1972,11 +1972,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.0,1.01|0.980,0.981|</t>
+          <t>1.04,1.05|0.97,0.98|1.040,1.041|</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.990868</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -1985,24 +1985,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.00,1.01|1.011,1.012|</t>
+          <t>0.98,0.99|0.98,0.99|1.004,1.005|</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1.013368983957219</v>
+        <v>0.99882</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|1.0,1.001|</t>
+          <t>1.01,1.02|0.98,0.99|0.997,0.998|</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1.002577319587629</v>
+        <v>0.998051</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -2011,11 +2011,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.01,1.02|0.992,0.993|</t>
+          <t>1.00,1.01|1.01,1.02|1.021,1.022|</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.9948849104859335</v>
+        <v>0.984293</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -2024,11 +2024,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.0,1.01|1.011,1.012|</t>
+          <t>0.99,1.00|1.01,1.02|1.015,1.016|</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1.005206462899936</v>
+        <v>0.994926</v>
       </c>
       <c r="C129" t="n">
         <v>2</v>
@@ -2037,11 +2037,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.0,1.01|1.005,1.006|</t>
+          <t>0.99,1.00|0.99,1.00|0.969,0.970|</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.9974293059125964</v>
+        <v>0.900262</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -2050,37 +2050,37 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|1.031,1.032|</t>
+          <t>0.99,1.00|1.00,1.01|0.988,0.989|</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9898734177215189</v>
+        <v>1.002653</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.0,1.001|</t>
+          <t>1.02,1.03|1.00,1.01|1.001,1.002|</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1.003009680113999</v>
+        <v>0.99233</v>
       </c>
       <c r="C132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|0.992,0.993|</t>
+          <t>0.99,1.00|1.02,1.03|0.991,0.992|</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.9377431906614787</v>
+        <v>0.990126</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -2089,24 +2089,24 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.04,1.05|0.987,0.988|</t>
+          <t>0.97,0.98|1.00,1.01|0.987,0.988|</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1.00250626566416</v>
+        <v>1.008945</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.937,0.938|</t>
+          <t>0.98,0.99|1.00,1.01|0.990,0.991|</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.9897750511247444</v>
+        <v>1.06246</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -2115,11 +2115,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.021,1.022|</t>
+          <t>0.97,0.98|1.01,1.02|0.988,0.989|</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.9848484848484848</v>
+        <v>1.00465</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -2128,11 +2128,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0.96,0.97|1.00,1.01|0.993,0.994|</t>
+          <t>0.96,0.97|1.03,1.04|0.992,0.993|</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1.012618296529968</v>
+        <v>0.9848</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -2141,11 +2141,11 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.979,0.980|</t>
+          <t>1.00,1.01|1.01,1.02|0.992,0.993|</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.994579945799458</v>
+        <v>0.994885</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -2154,11 +2154,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.98,0.99|1.021,1.022|</t>
+          <t>0.98,0.99|1.00,1.01|0.975,0.976|</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.9919786096256684</v>
+        <v>0.97201</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -2167,11 +2167,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.01,1.02|0.993,0.994|</t>
+          <t>0.97,0.98|0.94,0.95|0.989,0.990|</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1.004310344827586</v>
+        <v>0.980962</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -2180,11 +2180,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.00,1.01|1.002,1.003|</t>
+          <t>0.94,0.95|0.98,0.99|0.979,0.980|</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.9871244635193132</v>
+        <v>0.976517</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -2193,11 +2193,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|1.020,1.021|</t>
+          <t>1.00,1.01|0.99,1.00|1.032,1.033|</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>1.01389</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2206,24 +2206,24 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|1.015,1.016|</t>
+          <t>1.01,1.02|1.02,1.03|0.964,0.965|</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.9949261612078212</v>
+        <v>0.9740259999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.97,0.98|1.061,1.062|</t>
+          <t>0.97,0.98|1.00,1.01|0.998,0.999|</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.983739837398374</v>
+        <v>1.01144</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2232,11 +2232,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.03,1.04|0.966,0.967|</t>
+          <t>0.94,0.95|1.00,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1.001988071570576</v>
+        <v>0.989936</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2245,11 +2245,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.997,0.998|</t>
+          <t>0.99,1.00|1.01,1.02|0.994,0.995|</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.9923076923076923</v>
+        <v>0.992268</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2258,11 +2258,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0.96,0.97|0.90,0.91|0.997,0.998|</t>
+          <t>0.96,0.97|1.00,1.01|0.999,1.000|</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.9849397590361446</v>
+        <v>1.02347</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -2271,50 +2271,50 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.994,0.995|</t>
+          <t>1.00,1.01|0.98,0.99|0.992,0.993|</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.9999787239368227</v>
+        <v>1.01572</v>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|1.009,1.010|</t>
+          <t>1.03,1.04|1.00,1.01|0.994,0.995|</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.9993311315969152</v>
+        <v>0.995138</v>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.989,0.990|</t>
+          <t>0.98,0.99|1.00,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.9926891615541922</v>
+        <v>0.98849225</v>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|0.964,0.965|</t>
+          <t>0.98,0.99|0.99,1.00|1.026,1.027|</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1.020642201834862</v>
+        <v>1.0019</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2323,11 +2323,11 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.01,1.02|1.004,1.005|</t>
+          <t>1.02,1.03|1.01,1.02|1.028,1.029|</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1.006198347107438</v>
+        <v>1.04143</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2336,11 +2336,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|1.006,1.007|</t>
+          <t>0.97,0.98|1.06,1.07|1.000,1.001|</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.9959432048681542</v>
+        <v>0.997297</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -2349,11 +2349,11 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|1.015,1.016|</t>
+          <t>0.99,1.00|0.96,0.97|0.959,0.960|</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.9974160206718345</v>
+        <v>0.940928</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2362,11 +2362,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.028,1.029|</t>
+          <t>0.96,0.97|1.00,1.01|0.993,0.994|</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1.017902813299233</v>
+        <v>1.01262</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2375,11 +2375,11 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.02,1.03|0.977,0.978|</t>
+          <t>1.02,1.03|1.05,1.06|1.026,1.027|</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0.995014</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2388,11 +2388,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.02,1.03|1.008,1.009|</t>
+          <t>0.94,0.95|0.99,1.00|0.969,0.970|</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1.007915567282322</v>
+        <v>1.02063</v>
       </c>
       <c r="C157" t="n">
         <v>1</v>
@@ -2401,11 +2401,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.95,0.96|1.015,1.016|</t>
+          <t>0.99,1.00|1.06,1.07|0.986,0.987|</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1.020997375328084</v>
+        <v>0.990751</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2414,24 +2414,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.982,0.983|</t>
+          <t>1.00,1.01|1.00,1.01|0.996,0.997|</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1.027638190954774</v>
+        <v>0.9978813333333334</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.969,0.970|</t>
+          <t>0.99,1.00|1.04,1.05|0.977,0.978|</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.9002624671916011</v>
+        <v>0.974654</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2440,11 +2440,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|0.994,0.995|</t>
+          <t>0.99,1.00|1.01,1.02|0.996,0.997|</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1.005208333333333</v>
+        <v>1.04515</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -2453,11 +2453,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.998,0.999|</t>
+          <t>0.97,0.98|1.03,1.04|0.994,0.995|</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.9980430528375732</v>
+        <v>0.9829369999999999</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2466,24 +2466,24 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.994,0.995|</t>
+          <t>0.99,1.00|0.99,1.00|1.026,1.027|</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.9955312810327706</v>
+        <v>0.988214</v>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.015,1.016|</t>
+          <t>0.99,1.00|0.99,1.00|0.962,0.963|</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1.002597402597402</v>
+        <v>0.992806</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2492,11 +2492,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|1.0,1.001|</t>
+          <t>1.03,1.04|0.96,0.97|1.032,1.033|</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.981958762886598</v>
+        <v>1.01477</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -2505,11 +2505,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|0.995,0.996|</t>
+          <t>1.01,1.02|0.99,1.00|0.987,0.988|</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1.009195402298851</v>
+        <v>0.989796</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2518,37 +2518,37 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.06,1.07|1.0,1.001|</t>
+          <t>0.99,1.00|0.98,0.99|1.002,1.003|</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.9770773638968481</v>
+        <v>0.997382</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.001,1.002|</t>
+          <t>1.00,1.01|1.01,1.02|0.973,0.974|</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.9931123276174489</v>
+        <v>1.00805</v>
       </c>
       <c r="C168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.97,0.98|1.024,1.025|</t>
+          <t>0.97,0.98|0.99,1.00|0.993,0.994|</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.9701086956521738</v>
+        <v>0.991543</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2557,11 +2557,11 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1.04,1.05|1.01,1.02|0.966,0.967|</t>
+          <t>1.00,1.01|0.97,0.98|1.045,1.046|</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.9910179640718564</v>
+        <v>1.00094</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -2570,24 +2570,24 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.0,1.01|0.992,0.993|</t>
+          <t>1.02,1.03|1.00,1.01|0.994,0.995|</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.9877834400563548</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.032,1.033|</t>
+          <t>1.01,1.02|1.00,1.01|0.982,0.983|</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1.013888888888889</v>
+        <v>1.02764</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2596,11 +2596,11 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.040,1.041|</t>
+          <t>0.99,1.00|1.04,1.05|0.988,0.989|</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.9825</v>
+        <v>1.03248</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -2609,11 +2609,11 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.007,1.008|</t>
+          <t>1.00,1.01|1.01,1.02|1.011,1.012|</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1.000383227018741</v>
+        <v>0.9989980000000001</v>
       </c>
       <c r="C174" t="n">
         <v>2</v>
@@ -2622,37 +2622,37 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.01,1.02|1.009,1.010|</t>
+          <t>0.99,1.00|1.00,1.01|0.991,0.992|</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1.001773335089594</v>
+        <v>1.004476666666667</v>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.004,1.005|</t>
+          <t>0.99,1.00|0.98,0.99|0.967,0.968|</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.9993912597900664</v>
+        <v>1.00923</v>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1.03,1.04|1.0,1.01|0.984,0.985|</t>
+          <t>0.99,1.00|1.02,1.03|1.052,1.053|</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1.005063291139241</v>
+        <v>1.01861</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2661,11 +2661,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|1.013,1.014|</t>
+          <t>0.97,0.98|1.00,1.01|1.015,1.016|</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0.997416</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2674,11 +2674,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.00,1.01|1.015,1.016|</t>
+          <t>0.98,0.99|0.99,1.00|1.011,1.012|</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.9914163090128755</v>
+        <v>1.01682</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2687,11 +2687,11 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.01,1.02|0.998,0.999|</t>
+          <t>0.99,1.00|0.97,0.98|0.984,0.985|</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.9961240310077518</v>
+        <v>0.994609</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
@@ -2700,11 +2700,11 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.01,1.02|1.002,1.003|</t>
+          <t>1.00,1.01|0.98,0.99|0.996,0.997|</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1.004889975550122</v>
+        <v>0.99515</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2713,37 +2713,37 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.013,1.014|</t>
+          <t>0.99,1.00|1.01,1.02|0.984,0.985|</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1.0078125</v>
+        <v>0.9906975</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.0,1.001|</t>
+          <t>0.98,0.99|0.95,0.96|0.974,0.975|</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1.006592904457522</v>
+        <v>1.03285</v>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.97,0.98|0.991,0.992|</t>
+          <t>0.98,0.99|0.96,0.97|1.031,1.032|</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>1.00162</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2752,24 +2752,24 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.021,1.022|</t>
+          <t>1.00,1.01|0.99,1.00|1.005,1.006|</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.9842931937172775</v>
+        <v>0.996124</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.01,1.02|1.052,1.053|</t>
+          <t>0.98,0.99|0.99,1.00|1.008,1.009|</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.9974489795918368</v>
+        <v>0.993814</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2778,11 +2778,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.96,0.97|1.012,1.013|</t>
+          <t>0.98,0.99|0.97,0.98|1.007,1.008|</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.9973821989528796</v>
+        <v>1.01379</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -2791,24 +2791,24 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.010,1.011|</t>
+          <t>0.99,1.00|0.99,1.00|0.958,0.959|</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1.000734126876629</v>
+        <v>0.96604</v>
       </c>
       <c r="C188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|0.986,0.987|</t>
+          <t>1.01,1.02|0.98,0.99|1.005,1.006|</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1.002347417840376</v>
+        <v>1.01053</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2817,11 +2817,11 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|0.983,0.984|</t>
+          <t>0.97,0.98|0.99,1.00|0.971,0.972|</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1.044496487119438</v>
+        <v>0.992089</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
@@ -2830,24 +2830,24 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.005,1.006|</t>
+          <t>0.98,0.99|0.97,0.98|1.003,1.004|</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.9961240310077519</v>
+        <v>1.00409</v>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|1.001,1.002|</t>
+          <t>1.00,1.01|0.99,1.00|0.991,0.992|</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1.011764705882353</v>
+        <v>0.898575</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -2856,11 +2856,11 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.98,0.99|1.069,1.070|</t>
+          <t>1.00,1.01|1.00,1.01|1.004,1.005|</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1.014168685451995</v>
+        <v>1.006325</v>
       </c>
       <c r="C193" t="n">
         <v>2</v>
@@ -2869,11 +2869,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|1.017,1.018|</t>
+          <t>0.97,0.98|1.04,1.05|0.923,0.924|</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1.002197802197802</v>
+        <v>1.04618</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -2882,11 +2882,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1.06,1.07|1.0,1.01|0.991,0.992|</t>
+          <t>1.02,1.03|0.99,1.00|1.007,1.008|</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.9858757062146893</v>
+        <v>1.00759</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2895,11 +2895,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.0,1.01|0.987,0.988|</t>
+          <t>1.02,1.03|0.99,1.00|1.002,1.003|</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.9803921568627452</v>
+        <v>0.996422</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2908,11 +2908,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.972,0.973|</t>
+          <t>1.02,1.03|0.94,0.95|0.997,0.998|</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0.9815469999999999</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -2921,24 +2921,24 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|0.994,0.995|</t>
+          <t>0.99,1.00|0.99,1.00|0.992,0.993|</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1.024930747922438</v>
+        <v>0.9952546666666667</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.96,0.97|0.987,0.988|</t>
+          <t>0.99,1.00|1.00,1.01|0.995,0.996|</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.9870466321243524</v>
+        <v>1.01194</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -2947,11 +2947,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|0.994,0.995|</t>
+          <t>0.98,0.99|0.99,1.00|1.006,1.007|</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.9922680412371134</v>
+        <v>1.0067</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -2960,11 +2960,11 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|1.029,1.030|</t>
+          <t>1.02,1.03|1.01,1.02|0.993,0.994|</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1.022922636103152</v>
+        <v>1.00225</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -2973,11 +2973,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.02,1.03|0.983,0.984|</t>
+          <t>1.00,1.01|0.97,0.98|1.005,1.006|</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1.016574585635359</v>
+        <v>0.986381</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -2986,11 +2986,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|1.013,1.014|</t>
+          <t>1.00,1.01|1.02,1.03|1.016,1.017|</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1.017937219730942</v>
+        <v>1.02694</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -2999,11 +2999,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.997,0.998|</t>
+          <t>0.98,0.99|0.89,0.90|0.898,0.899|</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1.021857923497268</v>
+        <v>0.958848</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3012,11 +3012,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.97,0.98|1.011,1.012|</t>
+          <t>1.04,1.05|1.02,1.03|1.019,1.020|</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1.013358778625954</v>
+        <v>0.994492</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -3025,24 +3025,24 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.01,1.02|0.989,0.990|</t>
+          <t>0.97,0.98|0.98,0.99|1.021,1.022|</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.9918894327309238</v>
+        <v>0.9919790000000001</v>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.00,1.01|0.991,0.992|</t>
+          <t>0.98,0.99|0.98,0.99|0.972,0.973|</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1.008179959100205</v>
+        <v>0.987891</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -3051,11 +3051,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>0.90,0.91|0.99,1.00|0.994,0.995|</t>
+          <t>1.02,1.03|0.99,1.00|1.036,1.037|</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.9679300291545189</v>
+        <v>0.986476</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -3064,24 +3064,24 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.0,1.001|</t>
+          <t>1.01,1.02|1.01,1.02|0.981,0.982|</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.9883803784933205</v>
+        <v>1.00662</v>
       </c>
       <c r="C209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.01,1.02|0.978,0.979|</t>
+          <t>0.98,0.99|1.01,1.02|1.035,1.036|</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1.008403361344538</v>
+        <v>1.00297</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -3090,11 +3090,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.00,1.01|0.992,0.993|</t>
+          <t>0.98,0.99|1.01,1.02|1.007,1.008|</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1.01038961038961</v>
+        <v>1.00787</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -3103,11 +3103,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.01,1.02|1.007,1.008|</t>
+          <t>0.98,0.99|0.97,0.98|1.005,1.006|</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1.007874015748031</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -3116,14 +3116,4603 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.0,1.01|0.987,0.988|</t>
+          <t>0.97,0.98|0.98,0.99|1.012,1.013|</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1.008943389267933</v>
+        <v>1.02399</v>
       </c>
       <c r="C213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>0.95,0.96|1.01,1.02|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1.00263</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.01,1.02|0.974,0.975|</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1.01117</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.004,1.005|</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.9935902499999999</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.97,0.98|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.988273</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.014,1.015|</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.971893</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|0.956,0.957|</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.963618</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|0.977,0.978|</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1.03166</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.97,0.98|0.988,0.989|</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1.00736</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|0.986,0.987|</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0.984909</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|1.006,1.007|</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0.9938899999999999</v>
+      </c>
+      <c r="C223" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|0.989,0.990|</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0.979564</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>1.06,1.07|1.02,1.03|0.974,0.975|</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.955009</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>1.04,1.05|0.99,1.00|1.017,1.018|</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0.974265</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.01,1.02|0.989,0.990|</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0.9918905</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.98,0.99|1.009,1.010|</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|1.017,1.018|</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1.00243</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|1.003,1.004|</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0.9744350000000001</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.03,1.04|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1.00602</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|0.990,0.991|</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.989843</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|1.018,1.019|</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0.991672</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.97,0.98|1.031,1.032|</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.99938</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.97,0.98|0.985,0.986|</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.994302</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.02,1.03|1.010,1.011|</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.979058</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.03,1.04|1.008,1.009|</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1.02362</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.9974705</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1.06162</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|1.014,1.015|</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1.01529</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.97,0.98|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.97156</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.95,0.96|0.996,0.997|</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1.00087</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>0.96,0.97|0.99,1.00|1.015,1.016|</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.993072</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.96,0.97|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|1.062,1.063|</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1.00165</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|1.020,1.021|</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1.018723333333333</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.023,1.024|</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.986312</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1.0009</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>0.93,0.94|0.98,0.99|0.996,0.997|</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1.00415</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|1.015,1.016|</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.991416</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>0.96,0.97|0.95,0.96|1.042,1.043|</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.997475</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1.02186</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.01,1.02|0.979,0.980|</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1.01451</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.999071</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.01,1.02|0.983,0.984|</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.997162</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.01,1.02|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1.002215</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.028,1.029|</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1.016585</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.97,0.98|1.012,1.013|</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1.00493</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.98,0.99|0.991,0.992|</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1.00988</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1.000286</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.00,1.01|1.004,1.005|</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0.9997524999999999</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.97,0.98|0.975,0.976|</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.9959710000000001</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>0.95,0.96|1.01,1.02|1.006,1.007|</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.999016</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>0.95,0.96|0.97,0.98|1.020,1.021|</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.988671</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|0.982,0.983|</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.986842</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.999,1.000|</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1.00753</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|0.996,0.997|</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0.997441</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|1.013,1.014|</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1.000109</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.01,1.02|1.016,1.017|</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1.00531</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0.983761</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.01,1.02|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0.984536</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|0.964,0.965|</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.026,1.027|</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1.00672</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>0.96,0.97|1.01,1.02|0.989,0.990|</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0.994792</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1.0044238</v>
+      </c>
+      <c r="C275" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0.999757</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0.99278</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.97,0.98|0.989,0.990|</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1.00811</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.006,1.007|</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0.9977944999999999</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|1.032,1.033|</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|0.982,0.983|</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0.9772729999999999</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>1.03,1.04|1.00,1.01|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1.0041</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>0.96,0.97|0.99,1.00|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0.987097</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.99,1.00|0.977,0.978|</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.982368</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.96,0.97|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.987047</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|1.003,1.004|</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0.979739</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.01,1.02|0.979,0.980|</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0.992467</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1.006222777777778</v>
+      </c>
+      <c r="C288" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|1.009,1.010|</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1.00583</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.97,0.98|1.061,1.062|</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0.9837399999999999</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|0.983,0.984|</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0.989726</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|1.013,1.014|</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0.996833</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.04,1.05|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1.00251</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.01,1.02|1.052,1.053|</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>0.997449</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1.00395</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.96,0.97|1.012,1.013|</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0.997382</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.96,0.97|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1.01395</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|1.012,1.013|</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1.05822</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|0.989,0.990|</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|0.972,0.973|</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.991,0.992|</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1.00672</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|0.976,0.977|</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1.06963</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.97,0.98|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1.01202</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|1.024,1.025|</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1.01084</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.01,1.02|0.985,0.986|</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1.0127</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|0.991,0.992|</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.980989</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|1.015,1.016|</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1.000616</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.98,0.99|0.980,0.981|</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.97238</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1.003588</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.95,0.96|1.015,1.016|</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.98,0.99|1.008,1.009|</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1.00749</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.01,1.02|0.990,0.991|</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.983992</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|0.993,0.994|</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1.02713</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.987437</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.96,0.97|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.9938709999999999</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.01,1.02|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0.997036</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1.00521</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>0.95,0.96|1.06,1.07|1.021,1.022|</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0.992889</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.97,0.98|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.943675</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|1.003,1.004|</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1.0011375</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|1.008,1.009|</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1.02894</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.97,0.98|1.011,1.012|</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1.01336</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|1.050,1.051|</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>0.969697</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.02,1.03|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1.0039645</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|0.985,0.986|</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0.994129</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|0.996,0.997|</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>0.9792960000000001</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.97,0.98|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0.984111</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.971,0.972|</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>0.988909</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|0.962,0.963|</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>0.98362</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|1.010,1.011|</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1.027315</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.95,0.96|1.062,1.063|</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0.979409</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.97,0.98|1.016,1.017|</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.9972220000000001</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|1.006,1.007|</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0.980519</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|0.998,0.999|</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.997096</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|0.970,0.971|</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0.9887860000000001</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|0.999,1.000|</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1.01313</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.97,0.98|0.943,0.944|</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1.01226</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|1.012,1.013|</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.964525</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.02,1.03|0.998,0.999|</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1.0058</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|0.991,0.992|</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1.00638</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|0.964,0.965|</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1.02064</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>0.96,0.97|0.99,1.00|0.999,1.000|</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.92371</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.01,1.02|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1.01176</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.994832</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>0.97,0.98|0.99,1.00|1.024,1.025|</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1.02047</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.98,0.99|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0.998966</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.01,1.02|0.981,0.982|</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1.02118</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.998,0.999|</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1.001902</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|0.995,0.996|</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1.02481</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>0.97,0.98|0.99,1.00|0.980,0.981|</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>0.982439</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>0.97,0.98|0.98,0.99|1.069,1.070|</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1.014171</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|1.009,1.010|</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.9993319999999999</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|1.016,1.017|</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0.997044</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>0.9873885</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0.993407</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>0.97438</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.97,0.98|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0.9931266666666666</v>
+      </c>
+      <c r="C357" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.979127</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0.9931115</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|0.988,0.989|</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1.01244</v>
+      </c>
+      <c r="C360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.98,0.99|1.004,1.005|</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1.01106</v>
+      </c>
+      <c r="C361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>1.06,1.07|1.00,1.01|0.991,0.992|</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0.985876</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.010,1.011|</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1.00522</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1.01573</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|0.973,0.974|</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0.9893690000000001</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|0.978,0.979|</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1.01245</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|0.991,0.992|</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>0.998157</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.98,0.99|0.949,0.950|</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1.00093</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>0.97,0.98|0.99,1.00|1.046,1.047|</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1.02679</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.995,0.996|</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1.004796666666667</v>
+      </c>
+      <c r="C370" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.02,1.03|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0.988992</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>0.97,0.98|0.99,1.00|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0.980044</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.008,1.009|</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1.01199</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1.00718</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|0.998,0.999|</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0.999048</v>
+      </c>
+      <c r="C375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.040,1.041|</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1.06949</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>0.89,0.90|0.89,0.90|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.9898169999999999</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|1.008,1.009|</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1.017626333333333</v>
+      </c>
+      <c r="C378" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.98,0.99|1.026,1.027|</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.999292</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>0.97,0.98|0.97,0.98|0.973,0.974|</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1.00161</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.98,0.99|1.006,1.007|</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1.01565</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.98,0.99|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1.01449</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1.02493</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|1.015,1.016|</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0.999131</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|0.937,0.938|</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0.989775</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|1.025,1.026|</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0.97628</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1.00081</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|1.020,1.021|</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.97,0.98|1.013,1.014|</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0.999343</v>
+      </c>
+      <c r="C389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.01,1.02|1.009,1.010|</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1.0017715</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.96,0.97|1.003,1.004|</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0.984677</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|0.969,0.970|</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1.01749</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.013,1.014|</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1.00781</v>
+      </c>
+      <c r="C393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.003,1.004|</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0.9957799999999999</v>
+      </c>
+      <c r="C394" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.98,0.99|0.999,1.000|</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1.007655</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>1.04,1.05|0.92,0.93|0.966,0.967|</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0.977432</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|0.985,0.986|</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1.00404</v>
+      </c>
+      <c r="C397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.97,0.98|1.044,1.045|</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>0.912442</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.01,1.02|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1.00489</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.03,1.04|0.996,0.997|</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1.03509</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>1.03,1.04|1.00,1.01|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1.00912</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.010,1.011|</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1.001285</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>0.96,0.97|0.90,0.91|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>0.98494</v>
+      </c>
+      <c r="C403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.98,0.99|0.979,0.980|</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0.9894539999999999</v>
+      </c>
+      <c r="C404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.94,0.95|1.003,1.004|</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>0.991682</v>
+      </c>
+      <c r="C405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1.00602</v>
+      </c>
+      <c r="C406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|0.977,0.978|</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1.01375</v>
+      </c>
+      <c r="C407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.00,1.01|1.014,1.015|</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>0.9972105</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.97,0.98|1.016,1.017|</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1.06222</v>
+      </c>
+      <c r="C409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>1.03,1.04|1.01,1.02|1.032,1.033|</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>0.99096</v>
+      </c>
+      <c r="C410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>1.03,1.04|0.99,1.00|0.995,0.996|</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1.01023</v>
+      </c>
+      <c r="C411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.01,1.02|0.986,0.987|</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0.986869</v>
+      </c>
+      <c r="C412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.014,1.015|</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1.02663</v>
+      </c>
+      <c r="C413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|0.999,1.000|</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1.0083465</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|0.979,0.980|</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>0.99157</v>
+      </c>
+      <c r="C415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.96,0.97|0.986,0.987|</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0.996128</v>
+      </c>
+      <c r="C416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|1.013,1.014|</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1.007765</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0.981959</v>
+      </c>
+      <c r="C418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>1.06,1.07|1.01,1.02|0.980,0.981|</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.983962</v>
+      </c>
+      <c r="C419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.01,1.02|0.972,0.973|</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0.9872879999999999</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0.987047</v>
+      </c>
+      <c r="C421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|1.008,1.009|</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0.992048</v>
+      </c>
+      <c r="C422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.93,0.94|0.986,0.987|</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1.01033</v>
+      </c>
+      <c r="C423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0.9770570000000001</v>
+      </c>
+      <c r="C424" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>0.966463</v>
+      </c>
+      <c r="C425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.02,1.03|0.940,0.941|</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0.9812</v>
+      </c>
+      <c r="C426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.98,0.99|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0.997375</v>
+      </c>
+      <c r="C427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|1.013,1.014|</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+      <c r="C428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1.01604</v>
+      </c>
+      <c r="C429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|0.982,0.983|</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>0.998746</v>
+      </c>
+      <c r="C430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.04,1.05|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>0.993135</v>
+      </c>
+      <c r="C431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.98,0.99|0.986,0.987|</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1.01824</v>
+      </c>
+      <c r="C432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.029,1.030|</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1.02292</v>
+      </c>
+      <c r="C433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|1.023,1.024|</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1.00604</v>
+      </c>
+      <c r="C434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.01,1.02|0.999,1.000|</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1.01267</v>
+      </c>
+      <c r="C435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.013,1.014|</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>0.996602</v>
+      </c>
+      <c r="C436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.04,1.05|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1.00849</v>
+      </c>
+      <c r="C437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>0.97,0.98|0.98,0.99|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1.01309</v>
+      </c>
+      <c r="C438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.01,1.02|0.993,0.994|</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1.00431</v>
+      </c>
+      <c r="C439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.97,0.98|0.999,1.000|</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1.02091</v>
+      </c>
+      <c r="C440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>0.95,0.96|0.98,0.99|0.898,0.899|</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0.999285</v>
+      </c>
+      <c r="C441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|1.004,1.005|</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0.999143</v>
+      </c>
+      <c r="C442" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0.987745</v>
+      </c>
+      <c r="C443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.96,0.97|1.009,1.010|</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1.0405</v>
+      </c>
+      <c r="C444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|0.979,0.980|</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0.99458</v>
+      </c>
+      <c r="C445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|0.999,1.000|</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>0.977128</v>
+      </c>
+      <c r="C446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|0.996,0.997|</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>0.994945</v>
+      </c>
+      <c r="C447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.97,0.98|0.982,0.983|</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1.02067</v>
+      </c>
+      <c r="C448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.97,0.98|1.006,1.007|</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0.995676</v>
+      </c>
+      <c r="C449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>1.05,1.06|1.02,1.03|0.974,0.975|</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1.02407</v>
+      </c>
+      <c r="C450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.97,0.98|1.014,1.015|</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1.00185</v>
+      </c>
+      <c r="C451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0.9913522499999999</v>
+      </c>
+      <c r="C452" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>1.05,1.06|1.01,1.02|0.999,1.000|</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1.00564</v>
+      </c>
+      <c r="C453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>0.955556</v>
+      </c>
+      <c r="C454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.035,1.036|</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>0.986991</v>
+      </c>
+      <c r="C455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.98,0.99|1.011,1.012|</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>0.9930225</v>
+      </c>
+      <c r="C456" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.025,1.026|</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1.0128</v>
+      </c>
+      <c r="C457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.00,1.01|0.981,0.982|</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>0.990107</v>
+      </c>
+      <c r="C458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.012,1.013|</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>0.9960765</v>
+      </c>
+      <c r="C459" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.975,0.976|</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>0.999019</v>
+      </c>
+      <c r="C460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|1.031,1.032|</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>0.989873</v>
+      </c>
+      <c r="C461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.010,1.011|</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>0.9936666666666668</v>
+      </c>
+      <c r="C462" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|0.986,0.987|</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1.00235</v>
+      </c>
+      <c r="C463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.011,1.012|</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1.00521</v>
+      </c>
+      <c r="C464" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>0.96,0.97|1.00,1.01|0.912,0.913|</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1.00777</v>
+      </c>
+      <c r="C465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.97,0.98|1.040,1.041|</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>0.9825</v>
+      </c>
+      <c r="C466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>0.9990830000000001</v>
+      </c>
+      <c r="C467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1.004004</v>
+      </c>
+      <c r="C468" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>1.03,1.04|0.99,1.00|1.041,1.042|</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>0.979117</v>
+      </c>
+      <c r="C469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.97,0.98|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>0.9707789999999999</v>
+      </c>
+      <c r="C470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|1.023,1.024|</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1.02388</v>
+      </c>
+      <c r="C471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.981,0.982|</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>0.997416</v>
+      </c>
+      <c r="C472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|0.996,0.997|</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1.01468</v>
+      </c>
+      <c r="C473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1.00789</v>
+      </c>
+      <c r="C474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.96,0.97|1.025,1.026|</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1.01382</v>
+      </c>
+      <c r="C475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>0.89,0.90|1.00,1.01|0.990,0.991|</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>0.898719</v>
+      </c>
+      <c r="C476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.01,1.02|0.998,0.999|</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1.01134</v>
+      </c>
+      <c r="C477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|0.970,0.971|</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1.01114</v>
+      </c>
+      <c r="C478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>0.96,0.97|1.00,1.01|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>0.996945</v>
+      </c>
+      <c r="C479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+      <c r="C480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1.0022</v>
+      </c>
+      <c r="C481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1.02284</v>
+      </c>
+      <c r="C482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.01,1.02|0.989,0.990|</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>0.998047</v>
+      </c>
+      <c r="C483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.01,1.02|0.978,0.979|</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1.0084</v>
+      </c>
+      <c r="C484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.96,0.97|0.992,0.993|</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1.01923</v>
+      </c>
+      <c r="C485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|0.955,0.956|</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.99566</v>
+      </c>
+      <c r="C486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.974,0.975|</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0.9766359999999999</v>
+      </c>
+      <c r="C487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|0.977,0.978|</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.9863455</v>
+      </c>
+      <c r="C488" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.02,1.03|0.999,1.000|</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0.982615</v>
+      </c>
+      <c r="C489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|0.963,0.964|</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1.00199</v>
+      </c>
+      <c r="C490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|0.974,0.975|</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0.995748</v>
+      </c>
+      <c r="C491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>1.04,1.05|0.98,0.99|1.010,1.011|</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.996337</v>
+      </c>
+      <c r="C492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.03,1.04|0.990,0.991|</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.988608</v>
+      </c>
+      <c r="C493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1.01532</v>
+      </c>
+      <c r="C494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>1.04,1.05|1.01,1.02|0.966,0.967|</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0.991018</v>
+      </c>
+      <c r="C495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+      <c r="C496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.03,1.04|1.001,1.002|</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0.962441</v>
+      </c>
+      <c r="C497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.95,0.96|1.013,1.014|</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1.00197</v>
+      </c>
+      <c r="C498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.006,1.007|</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>0.993217</v>
+      </c>
+      <c r="C499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|0.976,0.977|</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1.05234</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>0.97,0.98|0.98,0.99|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+      <c r="C501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.95,0.96|0.989,0.990|</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.990694</v>
+      </c>
+      <c r="C502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.01,1.02|0.991,0.992|</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1.00198</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>1.03,1.04|0.99,1.00|1.048,1.049|</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1.01484</v>
+      </c>
+      <c r="C504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|0.998,0.999|</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0.996124</v>
+      </c>
+      <c r="C505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>0.91,0.92|0.99,1.00|0.979,0.980|</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1.00758</v>
+      </c>
+      <c r="C506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1.00904</v>
+      </c>
+      <c r="C507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.02,1.03|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1.00128</v>
+      </c>
+      <c r="C508" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.05,1.06|0.983,0.984|</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1.01031</v>
+      </c>
+      <c r="C509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>1.01,1.02|1.00,1.01|0.976,0.977|</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1.02105</v>
+      </c>
+      <c r="C510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>0.97,0.98|0.99,1.00|0.982,0.983|</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1.0102</v>
+      </c>
+      <c r="C511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.03,1.04|1.014,1.015|</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1.00798</v>
+      </c>
+      <c r="C512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>1.03,1.04|0.96,0.97|1.014,1.015|</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>0.998016</v>
+      </c>
+      <c r="C513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.02,1.03|1.010,1.011|</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>0.9594200000000001</v>
+      </c>
+      <c r="C514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>0.92,0.93|0.96,0.97|0.990,0.991|</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1.04049</v>
+      </c>
+      <c r="C515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1.01053</v>
+      </c>
+      <c r="C516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.97,0.98|0.981,0.982|</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1.02535</v>
+      </c>
+      <c r="C517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|0.971,0.972|</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>0.994571</v>
+      </c>
+      <c r="C518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.01,1.02|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>0.973316</v>
+      </c>
+      <c r="C519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|0.981,0.982|</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>0.974865</v>
+      </c>
+      <c r="C520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|1.015,1.016|</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1.0026</v>
+      </c>
+      <c r="C521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|0.966,0.967|</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1.03325</v>
+      </c>
+      <c r="C522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.97,0.98|0.996,0.997|</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1.00211</v>
+      </c>
+      <c r="C523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|1.006,1.007|</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>0.982537</v>
+      </c>
+      <c r="C524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.97,0.98|1.024,1.025|</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>0.970109</v>
+      </c>
+      <c r="C525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.02,1.03|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>0.984576</v>
+      </c>
+      <c r="C526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.01,1.02|1.031,1.032|</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1.04866</v>
+      </c>
+      <c r="C527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|1.017,1.018|</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>0.998018</v>
+      </c>
+      <c r="C528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>0.96,0.97|1.00,1.01|1.033,1.034|</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1.00813</v>
+      </c>
+      <c r="C529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.97,0.98|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1.0285</v>
+      </c>
+      <c r="C530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.99,1.00|0.993,0.994|</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>0.9840950000000001</v>
+      </c>
+      <c r="C531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.98,0.99|1.020,1.021|</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1.01642</v>
+      </c>
+      <c r="C532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.00,1.01|0.984,0.985|</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>0.997085</v>
+      </c>
+      <c r="C533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1.000384</v>
+      </c>
+      <c r="C534" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.99,1.00|0.998,0.999|</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>0.986654</v>
+      </c>
+      <c r="C535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.02,1.03|0.977,0.978|</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+      <c r="C536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1.00652</v>
+      </c>
+      <c r="C537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.97,0.98|0.983,0.984|</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>0.991098</v>
+      </c>
+      <c r="C538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>1.00,1.01|0.98,0.99|0.976,0.977|</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>0.972851</v>
+      </c>
+      <c r="C539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>0.98,0.99|0.99,1.00|0.988,0.989|</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+      <c r="C540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>1.05,1.06|1.01,1.02|0.995,0.996|</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1.05695</v>
+      </c>
+      <c r="C541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>0.99,1.00|0.99,1.00|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>0.992516</v>
+      </c>
+      <c r="C542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.06,1.07|1.012,1.013|</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>0.970278</v>
+      </c>
+      <c r="C543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>0.95,0.96|0.99,1.00|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>0.991387</v>
+      </c>
+      <c r="C544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>0.90,0.91|0.99,1.00|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0.96793</v>
+      </c>
+      <c r="C545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.00,1.01|1.011,1.012|</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1.01337</v>
+      </c>
+      <c r="C546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.00,1.01|1.020,1.021|</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1.00319</v>
+      </c>
+      <c r="C547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.03,1.04|1.000,1.001|</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>0.97733</v>
+      </c>
+      <c r="C548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>0.99,1.00|1.02,1.03|0.987,0.988|</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1.01295</v>
+      </c>
+      <c r="C549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|1.023,1.024|</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1.02312</v>
+      </c>
+      <c r="C550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.00,1.01|0.986,0.987|</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>0.9880525</v>
+      </c>
+      <c r="C551" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.02,1.03|0.995,0.996|</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1.00161</v>
+      </c>
+      <c r="C552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.00,1.01|1.027,1.028|</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>0.999375</v>
+      </c>
+      <c r="C553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.00,1.01|1.004,1.005|</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1.00654</v>
+      </c>
+      <c r="C554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.01,1.02|0.994,0.995|</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0.996842</v>
+      </c>
+      <c r="C555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>0.96,0.97|0.98,0.99|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1.00879</v>
+      </c>
+      <c r="C556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.97,0.98|1.008,1.009|</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1.00943</v>
+      </c>
+      <c r="C557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>0.98,0.99|1.01,1.02|1.023,1.024|</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>0.992295</v>
+      </c>
+      <c r="C558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>0.97,0.98|1.00,1.01|0.980,0.981|</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1.00698</v>
+      </c>
+      <c r="C559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>1.02,1.03|1.00,1.01|1.002,1.003|</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>0.987124</v>
+      </c>
+      <c r="C560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.98,0.99|0.990,0.991|</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0.971971</v>
+      </c>
+      <c r="C561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>0.95,0.96|1.04,1.05|0.986,0.987|</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>0.969796</v>
+      </c>
+      <c r="C562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>1.00,1.01|1.01,1.02|0.988,0.989|</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>0.9816309999999999</v>
+      </c>
+      <c r="C563" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>1.01,1.02|0.99,1.00|1.005,1.006|</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+      <c r="C564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>1.02,1.03|0.99,1.00|0.997,0.998|</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>0.99832</v>
+      </c>
+      <c r="C565" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>1.03,1.04|0.99,1.00|1.007,1.008|</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>0.992462</v>
+      </c>
+      <c r="C566" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/4.0test3_fp_django4.0AI/avg.xlsx
+++ b/4.0test3_fp_django4.0AI/avg.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C566"/>
+  <dimension ref="A1:C516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,11 +373,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|0.983,0.984|</t>
+          <t>1.00,1.01|1.00,1.01|0.98,0.99|1.00,1.01|1.04,1.05|</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.00738</v>
+        <v>0.992462</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -386,11 +386,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.96,0.97|0.98,0.99|1.000,1.001|</t>
+          <t>0.99,1.00|1.01,1.02|1.02,1.03|1.01,1.02|0.99,1.00|</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.994845</v>
+        <v>1.00257</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -399,11 +399,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.02,1.03|0.983,0.984|</t>
+          <t>0.97,0.98|0.99,1.00|1.00,1.01|0.99,1.00|1.02,1.03|</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.01657</v>
+        <v>1.02018</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -412,11 +412,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|0.976,0.977|</t>
+          <t>0.97,0.98|1.03,1.04|1.04,1.05|1.03,1.04|1.00,1.01|</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.00489</v>
+        <v>1.02679</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -425,11 +425,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.02,1.03|0.968,0.969|</t>
+          <t>1.00,1.01|0.98,0.99|0.98,0.99|0.98,0.99|1.02,1.03|</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.02082</v>
+        <v>1.02105</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -438,11 +438,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|1.012,1.013|</t>
+          <t>0.99,1.00|0.99,1.00|1.00,1.01|0.99,1.00|0.99,1.00|</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9846549999999999</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -451,37 +451,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.91,0.92|0.993,0.994|</t>
+          <t>1.00,1.01|1.03,1.04|1.00,1.01|1.03,1.04|1.00,1.01|</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.967419</v>
+        <v>0.9918445</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.983,0.984|</t>
+          <t>1.00,1.01|0.96,0.97|0.96,0.97|0.96,0.97|1.01,1.02|</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.0445</v>
+        <v>0.991245</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.06,1.07|0.98,0.99|1.007,1.008|</t>
+          <t>0.99,1.00|1.01,1.02|0.97,0.98|1.01,1.02|1.01,1.02|</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.99137</v>
+        <v>1.0179</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -490,11 +490,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.994,0.995|</t>
+          <t>1.03,1.04|1.01,1.02|1.00,1.01|1.01,1.02|0.99,1.00|</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.994792</v>
+        <v>1.00161</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -503,11 +503,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|1.031,1.032|</t>
+          <t>1.01,1.02|0.96,0.97|1.00,1.01|0.96,0.97|1.01,1.02|</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.987113</v>
+        <v>0.99619</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -516,11 +516,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.00,1.01|0.979,0.980|</t>
+          <t>0.98,0.99|1.06,1.07|0.99,1.00|1.06,1.07|1.02,1.03|</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.964216</v>
+        <v>0.997449</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -529,37 +529,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.967,0.968|</t>
+          <t>1.00,1.01|0.99,1.00|0.99,1.00|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.02067</v>
+        <v>0.9954872</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.973,0.974|</t>
+          <t>1.00,1.01|1.02,1.03|1.00,1.01|1.02,1.03|0.99,1.00|</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.986193</v>
+        <v>1.009925</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.002,1.003|</t>
+          <t>1.02,1.03|0.99,1.00|0.97,0.98|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.00779</v>
+        <v>1.009385</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -568,24 +568,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.989,0.990|</t>
+          <t>0.97,0.98|0.93,0.94|0.99,1.00|0.93,0.94|1.00,1.01|</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9926915000000001</v>
+        <v>0.980962</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.964,0.965|</t>
+          <t>0.96,0.97|0.98,0.99|0.98,0.99|0.98,0.99|1.02,1.03|</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.973081</v>
+        <v>0.9922879999999999</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -594,24 +594,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.98,0.99|0.994,0.995|</t>
+          <t>1.02,1.03|0.98,0.99|1.01,1.02|0.98,0.99|1.02,1.03|</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.985333</v>
+        <v>1.00508</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.98,0.99|0.976,0.977|</t>
+          <t>0.97,0.98|1.02,1.03|0.98,0.99|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.00201</v>
+        <v>1.02292</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -620,11 +620,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.03,1.04|0.966,0.967|</t>
+          <t>1.00,1.01|0.98,0.99|1.00,1.01|0.98,0.99|0.99,1.00|</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.00199</v>
+        <v>1.00489</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -633,11 +633,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.006,1.007|</t>
+          <t>1.00,1.01|1.04,1.05|1.00,1.01|1.04,1.05|1.01,1.02|</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.00928</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -646,11 +646,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|0.983,0.984|</t>
+          <t>0.97,0.98|0.97,0.98|0.99,1.00|0.97,0.98|1.02,1.03|</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.00512</v>
+        <v>1.00638</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -659,11 +659,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|1.001,1.002|</t>
+          <t>0.98,0.99|1.00,1.01|0.99,1.00|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9912879999999999</v>
+        <v>0.970109</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -672,24 +672,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.01,1.02|1.024,1.025|</t>
+          <t>0.99,1.00|0.95,0.96|0.98,0.99|0.95,0.96|0.99,1.00|</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.01533</v>
+        <v>0.9897864999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.986,0.987|</t>
+          <t>0.99,1.00|1.00,1.01|0.97,0.98|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.00858</v>
+        <v>0.971459</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -698,24 +698,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.007,1.008|</t>
+          <t>1.00,1.01|0.97,0.98|0.97,0.98|0.97,0.98|1.02,1.03|</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.006411</v>
+        <v>1.01824</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.998,0.999|</t>
+          <t>0.95,0.96|0.98,0.99|0.98,0.99|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.998043</v>
+        <v>0.92371</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -724,11 +724,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.04,1.05|1.020,1.021|</t>
+          <t>0.98,0.99|0.97,0.98|0.99,1.00|0.97,0.98|1.03,1.04|</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.03138</v>
+        <v>0.964216</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -737,24 +737,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.006,1.007|</t>
+          <t>1.02,1.03|0.98,0.99|0.99,1.00|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.01201</v>
+        <v>1.035045</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.013,1.014|</t>
+          <t>1.00,1.01|1.01,1.02|0.99,1.00|1.01,1.02|0.99,1.00|</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.996176</v>
+        <v>0.983834</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -763,24 +763,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.991,0.992|</t>
+          <t>1.00,1.01|0.99,1.00|1.01,1.02|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9960605</v>
+        <v>0.994209</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.97,0.98|0.990,0.991|</t>
+          <t>0.99,1.00|1.00,1.01|1.04,1.05|1.00,1.01|1.06,1.07|</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.05219</v>
+        <v>1.02407</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -789,11 +789,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.99,1.00|1.008,1.009|</t>
+          <t>1.01,1.02|1.03,1.04|0.99,1.00|1.03,1.04|1.02,1.03|</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.995449</v>
+        <v>1.00792</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -802,11 +802,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.98,0.99|1.000,1.001|</t>
+          <t>0.98,0.99|0.98,0.99|0.99,1.00|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.0158</v>
+        <v>0.993217</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -815,11 +815,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.00,1.01|1.000,1.001|</t>
+          <t>0.97,0.98|0.97,0.98|1.00,1.01|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.990282</v>
+        <v>0.986381</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -828,11 +828,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|0.986,0.987|</t>
+          <t>1.02,1.03|0.99,1.00|0.99,1.00|0.99,1.00|1.04,1.05|</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.985075</v>
+        <v>0.97555</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -841,11 +841,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.021,1.022|</t>
+          <t>0.97,0.98|1.01,1.02|1.00,1.01|1.01,1.02|1.02,1.03|</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9848479999999999</v>
+        <v>0.984536</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -854,11 +854,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.005,1.006|</t>
+          <t>1.00,1.01|0.98,0.99|1.02,1.03|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9990830000000001</v>
+        <v>0.99449</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -867,11 +867,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1.04,1.05|0.98,0.99|1.007,1.008|</t>
+          <t>0.97,0.98|0.99,1.00|1.01,1.02|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.97555</v>
+        <v>0.992989</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -880,11 +880,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|0.992,0.993|</t>
+          <t>1.01,1.02|1.05,1.06|0.98,0.99|1.05,1.06|0.99,1.00|</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.937743</v>
+        <v>0.999012</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -893,24 +893,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|1.007,1.008|</t>
+          <t>0.99,1.00|0.99,1.00|0.99,1.00|0.99,1.00|0.99,1.00|</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.00274</v>
+        <v>0.9958325</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.993,0.994|</t>
+          <t>0.99,1.00|0.98,0.99|1.01,1.02|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.00791</v>
+        <v>0.937743</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -919,11 +919,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0.96,0.97|1.03,1.04|0.988,0.989|</t>
+          <t>0.98,0.99|0.96,0.97|1.01,1.02|0.96,0.97|0.99,1.00|</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.03596</v>
+        <v>0.984111</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -932,11 +932,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.010,1.011|</t>
+          <t>0.99,1.00|0.96,0.97|0.95,0.96|0.96,0.97|1.00,1.01|</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9990019999999999</v>
+        <v>0.976517</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -945,11 +945,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1.06,1.07|1.00,1.01|1.022,1.023|</t>
+          <t>0.98,0.99|1.03,1.04|1.00,1.01|1.03,1.04|1.02,1.03|</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.976253</v>
+        <v>0.97733</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -958,11 +958,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.028,1.029|</t>
+          <t>1.01,1.02|0.98,0.99|0.99,1.00|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.990909</v>
+        <v>0.987047</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -971,11 +971,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|0.979,0.980|</t>
+          <t>0.96,0.97|0.97,0.98|0.90,0.91|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.01402</v>
+        <v>0.966463</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -984,11 +984,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|1.024,1.025|</t>
+          <t>1.01,1.02|0.99,1.00|0.98,0.99|0.99,1.00|1.03,1.04|</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.00422</v>
+        <v>0.996422</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -997,24 +997,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.99,1.00|1.008,1.009|</t>
+          <t>1.02,1.03|1.00,1.01|0.99,1.00|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9809</v>
+        <v>0.986693</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.000,1.001|</t>
+          <t>0.97,0.98|1.02,1.03|0.99,1.00|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.03133</v>
+        <v>1.00319</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1023,24 +1023,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.96,0.97|1.007,1.008|</t>
+          <t>1.00,1.01|1.00,1.01|1.00,1.01|1.00,1.01|1.02,1.03|</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9920055000000001</v>
+        <v>0.99233</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.98,0.99|1.023,1.024|</t>
+          <t>1.04,1.05|1.02,1.03|1.02,1.03|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.00931</v>
+        <v>0.9829369999999999</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1049,24 +1049,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.999,1.000|</t>
+          <t>1.00,1.01|1.00,1.01|1.02,1.03|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9935733333333333</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.980,0.981|</t>
+          <t>0.97,0.98|0.98,0.99|0.99,1.00|0.98,0.99|1.03,1.04|</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.986341</v>
+        <v>1.01023</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1075,11 +1075,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.97,0.98|1.000,1.001|</t>
+          <t>1.01,1.02|0.99,1.00|1.01,1.02|0.99,1.00|1.04,1.05|</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.995872</v>
+        <v>0.98005</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1088,24 +1088,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|0.962,0.963|</t>
+          <t>1.02,1.03|0.98,0.99|1.00,1.01|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.021</v>
+        <v>1.0146905</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0.96,0.97|1.02,1.03|1.000,1.001|</t>
+          <t>1.01,1.02|0.95,0.96|1.00,1.01|0.95,0.96|1.01,1.02|</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.02497</v>
+        <v>0.963618</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1114,24 +1114,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.01,1.02|0.984,0.985|</t>
+          <t>1.00,1.01|1.01,1.02|0.99,1.00|1.01,1.02|1.03,1.04|</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0.9922834999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.04,1.05|1.012,1.013|</t>
+          <t>0.95,0.96|0.96,0.97|0.94,0.95|0.96,0.97|1.03,1.04|</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>1.01923</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1140,24 +1140,24 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.97,0.98|1.012,1.013|</t>
+          <t>1.01,1.02|1.00,1.01|0.98,0.99|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.00318</v>
+        <v>1.003652</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.02,1.03|1.012,1.013|</t>
+          <t>0.99,1.00|0.92,0.93|0.99,1.00|0.92,0.93|1.00,1.01|</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9799369999999999</v>
+        <v>1.01033</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1166,11 +1166,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.96,0.97|0.900,0.901|</t>
+          <t>0.99,1.00|1.02,1.03|1.01,1.02|1.02,1.03|0.99,1.00|</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.993884</v>
+        <v>1.0058</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1179,11 +1179,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.015,1.016|</t>
+          <t>0.97,0.98|0.98,0.99|1.03,1.04|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.00301</v>
+        <v>0.998746</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1192,11 +1192,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.97,0.98|0.991,0.992|</t>
+          <t>1.00,1.01|1.00,1.01|0.98,0.99|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>1.01682</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1205,11 +1205,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.96,0.97|0.993,0.994|</t>
+          <t>0.98,0.99|0.99,1.00|1.00,1.01|0.99,1.00|1.02,1.03|</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>1.012</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1218,24 +1218,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.027,1.028|</t>
+          <t>1.00,1.01|1.05,1.06|0.99,1.00|1.05,1.06|1.00,1.01|</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.992834</v>
+        <v>1.02933</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.970,0.971|</t>
+          <t>0.97,0.98|0.99,1.00|0.97,0.98|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.98503</v>
+        <v>1.00718</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1244,24 +1244,24 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.992,0.993|</t>
+          <t>1.03,1.04|1.05,1.06|0.99,1.00|1.05,1.06|1.00,1.01|</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.005875</v>
+        <v>1.00798</v>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|1.006,1.007|</t>
+          <t>0.96,0.97|1.00,1.01|1.00,1.01|1.00,1.01|1.04,1.05|</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.987375</v>
+        <v>1.00759</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1270,11 +1270,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.06,1.07|1.000,1.001|</t>
+          <t>1.01,1.02|0.99,1.00|1.02,1.03|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.977077</v>
+        <v>0.989418</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1283,11 +1283,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|0.980,0.981|</t>
+          <t>1.05,1.06|1.01,1.02|1.02,1.03|1.01,1.02|1.03,1.04|</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9977780000000001</v>
+        <v>1.00422</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1296,11 +1296,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1.04,1.05|0.98,0.99|1.001,1.002|</t>
+          <t>1.06,1.07|0.98,0.99|0.98,0.99|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.95928</v>
+        <v>0.898575</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1309,11 +1309,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.03,1.04|0.966,0.967|</t>
+          <t>1.02,1.03|0.98,0.99|1.00,1.01|0.98,0.99|1.02,1.03|</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.981077</v>
+        <v>0.9740259999999999</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1322,11 +1322,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.02,1.03|1.011,1.012|</t>
+          <t>1.02,1.03|0.96,0.97|1.01,1.02|0.96,0.97|1.00,1.01|</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.0025</v>
+        <v>0.994609</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1335,11 +1335,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.98,0.99|1.007,1.008|</t>
+          <t>0.98,0.99|0.98,0.99|0.98,0.99|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.01025</v>
+        <v>1.01379</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1348,24 +1348,24 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|1.015,1.016|</t>
+          <t>1.00,1.01|0.99,1.00|1.00,1.01|0.99,1.00|0.98,0.99|</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.987988</v>
+        <v>0.991387</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.022,1.023|</t>
+          <t>1.01,1.02|0.98,0.99|1.02,1.03|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.00194</v>
+        <v>1.01117</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1374,11 +1374,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.97,0.98|0.990,0.991|</t>
+          <t>1.01,1.02|0.98,0.99|0.98,0.99|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.010651</v>
+        <v>1.02052</v>
       </c>
       <c r="C79" t="n">
         <v>2</v>
@@ -1387,11 +1387,11 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|1.020,1.021|</t>
+          <t>1.00,1.01|1.02,1.03|1.00,1.01|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0.912442</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1400,37 +1400,37 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.995,0.996|</t>
+          <t>0.89,0.90|0.88,0.89|1.00,1.01|0.88,0.89|0.98,0.99|</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1.004595</v>
+        <v>0.999285</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|1.004,1.005|</t>
+          <t>1.00,1.01|1.02,1.03|1.02,1.03|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9878670000000001</v>
+        <v>1.007686666666667</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.974,0.975|</t>
+          <t>0.98,0.99|0.99,1.00|0.99,1.00|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1.00814</v>
+        <v>1.00568</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1439,11 +1439,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.00,1.01|0.952,0.953|</t>
+          <t>1.00,1.01|1.04,1.05|0.99,1.00|1.04,1.05|0.99,1.00|</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0.990751</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -1452,24 +1452,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.994,0.995|</t>
+          <t>0.99,1.00|0.98,0.99|1.03,1.04|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9955315</v>
+        <v>0.969697</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0.96,0.97|1.00,1.01|1.005,1.006|</t>
+          <t>0.96,0.97|0.96,0.97|0.99,1.00|0.96,0.97|1.01,1.02|</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.00795</v>
+        <v>1.04618</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1478,11 +1478,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.03,1.04|0.997,0.998|</t>
+          <t>1.01,1.02|1.01,1.02|0.99,1.00|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0.9993</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1491,11 +1491,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|0.992,0.993|</t>
+          <t>1.00,1.01|0.96,0.97|1.01,1.02|0.96,0.97|1.00,1.01|</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.992327</v>
+        <v>1.00201</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -1504,24 +1504,24 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.01,1.02|0.999,1.000|</t>
+          <t>1.00,1.01|1.00,1.01|0.98,0.99|1.00,1.01|0.99,1.00|</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9947045</v>
+        <v>1.00617</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|1.008,1.009|</t>
+          <t>1.01,1.02|1.00,1.01|1.00,1.01|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1.00574</v>
+        <v>0.992308</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1530,11 +1530,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.020,1.021|</t>
+          <t>0.98,0.99|1.00,1.01|1.06,1.07|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.993097</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1543,24 +1543,24 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|0.983,0.984|</t>
+          <t>1.01,1.02|0.97,0.98|0.98,0.99|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.983885</v>
+        <v>0.989008</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|1.002,1.003|</t>
+          <t>0.96,0.97|1.00,1.01|0.99,1.00|1.00,1.01|1.02,1.03|</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.997382</v>
+        <v>1.00225</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1569,24 +1569,24 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.05,1.06|1.011,1.012|</t>
+          <t>1.00,1.01|0.97,0.98|0.98,0.99|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.986916</v>
+        <v>1.000593666666667</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.003,1.004|</t>
+          <t>1.01,1.02|0.97,0.98|1.02,1.03|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1.03243</v>
+        <v>0.9707789999999999</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -1595,11 +1595,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.98,0.99|1.018,1.019|</t>
+          <t>0.91,0.92|0.97,0.98|0.99,1.00|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1.01331</v>
+        <v>0.994859</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -1608,11 +1608,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.981,0.982|</t>
+          <t>0.99,1.00|0.98,0.99|0.97,0.98|0.98,0.99|0.99,1.00|</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.00081</v>
+        <v>1.02493</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1621,11 +1621,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.991,0.992|</t>
+          <t>1.01,1.02|0.98,0.99|0.98,0.99|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.01616</v>
+        <v>0.9878670000000001</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -1634,11 +1634,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.980,0.981|</t>
+          <t>0.99,1.00|1.00,1.01|0.99,1.00|1.00,1.01|1.03,1.04|</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.952381</v>
+        <v>0.9809</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1647,11 +1647,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.99,1.00|0.955,0.956|</t>
+          <t>0.99,1.00|1.00,1.01|1.04,1.05|1.00,1.01|0.99,1.00|</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.989945</v>
+        <v>0.99938</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -1660,11 +1660,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.010,1.011|</t>
+          <t>1.00,1.01|1.02,1.03|0.95,0.96|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.991549</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1673,11 +1673,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.017,1.018|</t>
+          <t>1.01,1.02|0.99,1.00|1.00,1.01|0.99,1.00|1.02,1.03|</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1.0022</v>
+        <v>0.992467</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1686,11 +1686,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1.04,1.05|1.00,1.01|1.000,1.001|</t>
+          <t>0.98,0.99|0.97,0.98|1.01,1.02|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9798210000000001</v>
+        <v>0.97156</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -1699,37 +1699,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.994,0.995|</t>
+          <t>0.99,1.00|0.89,0.90|0.96,0.97|0.89,0.90|1.00,1.01|</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.999979</v>
+        <v>0.98494</v>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1.05,1.06|0.98,0.99|0.997,0.998|</t>
+          <t>0.99,1.00|1.00,1.01|1.01,1.02|1.00,1.01|1.02,1.03|</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1.01571</v>
+        <v>1.002255</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1.03,1.04|0.98,0.99|0.959,0.960|</t>
+          <t>1.00,1.01|0.96,0.97|0.99,1.00|0.96,0.97|1.02,1.03|</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.966716</v>
+        <v>1.01244</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1738,24 +1738,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.02,1.03|1.008,1.009|</t>
+          <t>1.00,1.01|0.99,1.00|1.00,1.01|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1.00896</v>
+        <v>1.00146525</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.02,1.03|1.008,1.009|</t>
+          <t>1.00,1.01|0.99,1.00|0.99,1.00|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1.00792</v>
+        <v>1.01245</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1764,37 +1764,37 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.98,0.99|0.982,0.983|</t>
+          <t>0.98,0.99|1.01,1.02|0.99,1.00|1.01,1.02|1.01,1.02|</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.987743</v>
+        <v>0.9918804999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.009,1.010|</t>
+          <t>1.02,1.03|0.99,1.00|0.97,0.98|0.99,1.00|1.02,1.03|</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9979960000000001</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|0.995,0.996|</t>
+          <t>0.99,1.00|0.94,0.95|0.99,1.00|0.94,0.95|0.99,1.00|</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.96473</v>
+        <v>1.00161</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1803,11 +1803,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.987,0.988|</t>
+          <t>0.99,1.00|0.97,0.98|0.97,0.98|0.97,0.98|1.03,1.04|</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1.02368</v>
+        <v>1.00988</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -1816,24 +1816,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|1.011,1.012|</t>
+          <t>0.98,0.99|1.01,1.02|1.00,1.01|1.01,1.02|0.99,1.00|</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.977245</v>
+        <v>0.989795</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.02,1.03|1.004,1.005|</t>
+          <t>0.99,1.00|1.00,1.01|1.02,1.03|1.00,1.01|0.99,1.00|</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.988125</v>
+        <v>1.00802</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1842,11 +1842,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.986,0.987|</t>
+          <t>1.00,1.01|0.96,0.97|0.99,1.00|0.96,0.97|1.00,1.01|</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1.04245</v>
+        <v>0.990202</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -1855,11 +1855,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.01,1.02|1.004,1.005|</t>
+          <t>0.98,0.99|1.02,1.03|0.98,0.99|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1.0062</v>
+        <v>0.991549</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1868,50 +1868,50 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.008,1.009|</t>
+          <t>0.99,1.00|0.97,0.98|1.02,1.03|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1.0001585</v>
+        <v>0.971971</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.997,0.998|</t>
+          <t>1.00,1.01|1.00,1.01|1.01,1.02|1.00,1.01|1.04,1.05|</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1.002679</v>
+        <v>0.995138</v>
       </c>
       <c r="C118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.02,1.03|1.002,1.003|</t>
+          <t>1.00,1.01|0.99,1.00|0.98,0.99|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1.00435</v>
+        <v>1.007586666666667</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.988,0.989|</t>
+          <t>1.00,1.01|1.03,1.04|1.00,1.01|1.03,1.04|1.01,1.02|</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1.0037</v>
+        <v>1.00602</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -1920,11 +1920,11 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.989,0.990|</t>
+          <t>0.99,1.00|1.04,1.05|1.02,1.03|1.04,1.05|1.00,1.01|</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.993399</v>
+        <v>1.02775</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -1933,11 +1933,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.01,1.02|0.987,0.988|</t>
+          <t>1.01,1.02|0.99,1.00|0.98,0.99|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1.00451</v>
+        <v>0.9973610000000001</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -1946,11 +1946,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1.03,1.04|0.99,1.00|0.971,0.972|</t>
+          <t>1.01,1.02|0.97,0.98|0.99,1.00|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.966744</v>
+        <v>0.999019</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -1959,11 +1959,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.02,1.03|1.018,1.019|</t>
+          <t>0.99,1.00|0.96,0.97|0.97,0.98|0.96,0.97|1.03,1.04|</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1.02775</v>
+        <v>0.966744</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -1972,11 +1972,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1.04,1.05|0.97,0.98|1.040,1.041|</t>
+          <t>1.00,1.01|0.98,0.99|0.98,0.99|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.990868</v>
+        <v>0.980519</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -1985,37 +1985,37 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.98,0.99|1.004,1.005|</t>
+          <t>1.00,1.01|0.99,1.00|1.02,1.03|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.99882</v>
+        <v>0.993399</v>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|0.997,0.998|</t>
+          <t>1.00,1.01|0.99,1.00|1.00,1.01|0.99,1.00|1.02,1.03|</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.998051</v>
+        <v>1.00668</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.021,1.022|</t>
+          <t>0.97,0.98|0.98,0.99|0.98,0.99|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.984293</v>
+        <v>0.9836510000000001</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -2024,24 +2024,24 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|1.015,1.016|</t>
+          <t>0.97,0.98|1.02,1.03|1.01,1.02|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.994926</v>
+        <v>0.99241</v>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.969,0.970|</t>
+          <t>0.99,1.00|1.02,1.03|1.01,1.02|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.900262</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -2050,24 +2050,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.988,0.989|</t>
+          <t>1.05,1.06|1.02,1.03|0.98,0.99|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1.002653</v>
+        <v>0.9974420000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.00,1.01|1.001,1.002|</t>
+          <t>0.98,0.99|0.99,1.00|1.02,1.03|0.99,1.00|0.99,1.00|</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.99233</v>
+        <v>1.02118</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -2076,37 +2076,37 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.02,1.03|0.991,0.992|</t>
+          <t>1.00,1.01|1.02,1.03|0.98,0.99|1.02,1.03|0.98,0.99|</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.990126</v>
+        <v>0.984406</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|0.987,0.988|</t>
+          <t>0.95,0.96|0.99,1.00|0.99,1.00|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1.008945</v>
+        <v>1.00436</v>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.990,0.991|</t>
+          <t>0.94,0.95|1.00,1.01|0.99,1.00|1.00,1.01|0.99,1.00|</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1.06246</v>
+        <v>1.01642</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -2115,11 +2115,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.01,1.02|0.988,0.989|</t>
+          <t>1.01,1.02|1.00,1.01|0.99,1.00|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1.00465</v>
+        <v>0.981732</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -2128,11 +2128,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0.96,0.97|1.03,1.04|0.992,0.993|</t>
+          <t>0.98,0.99|1.02,1.03|1.00,1.01|1.02,1.03|0.99,1.00|</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.9848</v>
+        <v>1.00531</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -2141,11 +2141,11 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.992,0.993|</t>
+          <t>1.00,1.01|1.00,1.01|1.01,1.02|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.994885</v>
+        <v>1.05035</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -2154,24 +2154,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.975,0.976|</t>
+          <t>0.98,0.99|0.99,1.00|0.99,1.00|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.97201</v>
+        <v>1.002048</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.94,0.95|0.989,0.990|</t>
+          <t>1.02,1.03|0.98,0.99|0.96,0.97|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.980962</v>
+        <v>0.999343</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -2180,37 +2180,37 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0.94,0.95|0.98,0.99|0.979,0.980|</t>
+          <t>0.97,0.98|1.00,1.01|1.00,1.01|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.976517</v>
+        <v>1.010645</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.032,1.033|</t>
+          <t>1.00,1.01|0.96,0.97|0.98,0.99|0.96,0.97|1.01,1.02|</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1.01389</v>
+        <v>1.0065445</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.02,1.03|0.964,0.965|</t>
+          <t>0.98,0.99|0.98,0.99|0.98,0.99|0.98,0.99|1.03,1.04|</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.9740259999999999</v>
+        <v>0.989796</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2219,24 +2219,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|0.998,0.999|</t>
+          <t>0.99,1.00|0.98,0.99|0.98,0.99|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1.01144</v>
+        <v>0.9957736666666667</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0.94,0.95|1.00,1.01|0.992,0.993|</t>
+          <t>1.00,1.01|1.02,1.03|0.99,1.00|1.02,1.03|1.09,1.10|</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.989936</v>
+        <v>0.976253</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2245,11 +2245,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|0.994,0.995|</t>
+          <t>0.98,0.99|1.05,1.06|1.00,1.01|1.05,1.06|1.00,1.01|</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.992268</v>
+        <v>1.00165</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2258,24 +2258,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0.96,0.97|1.00,1.01|0.999,1.000|</t>
+          <t>0.99,1.00|0.97,0.98|0.99,1.00|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1.02347</v>
+        <v>1.0011465</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.992,0.993|</t>
+          <t>0.99,1.00|1.06,1.07|1.04,1.05|1.06,1.07|1.02,1.03|</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1.01572</v>
+        <v>0.977077</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2284,11 +2284,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1.03,1.04|1.00,1.01|0.994,0.995|</t>
+          <t>0.95,0.96|0.96,0.97|1.04,1.05|0.96,0.97|0.98,0.99|</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.995138</v>
+        <v>1.02063</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -2297,24 +2297,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.992,0.993|</t>
+          <t>1.02,1.03|0.99,1.00|1.00,1.01|0.99,1.00|0.99,1.00|</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.98849225</v>
+        <v>0.996245</v>
       </c>
       <c r="C150" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|1.026,1.027|</t>
+          <t>1.06,1.07|0.94,0.95|1.02,1.03|0.94,0.95|0.98,0.99|</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1.0019</v>
+        <v>0.989945</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2323,11 +2323,11 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.01,1.02|1.028,1.029|</t>
+          <t>1.03,1.04|1.01,1.02|1.00,1.01|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1.04143</v>
+        <v>0.994012</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2336,24 +2336,24 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.06,1.07|1.000,1.001|</t>
+          <t>0.98,0.99|0.97,0.98|0.98,0.99|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.997297</v>
+        <v>1.0177</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.96,0.97|0.959,0.960|</t>
+          <t>1.05,1.06|0.99,1.00|1.01,1.02|0.99,1.00|0.99,1.00|</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.940928</v>
+        <v>1.00879</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2362,11 +2362,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0.96,0.97|1.00,1.01|0.993,0.994|</t>
+          <t>0.99,1.00|0.99,1.00|1.01,1.02|0.99,1.00|1.03,1.04|</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1.01262</v>
+        <v>1.00291</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2375,11 +2375,11 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.05,1.06|1.026,1.027|</t>
+          <t>0.99,1.00|1.04,1.05|1.00,1.01|1.04,1.05|1.00,1.01|</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.995014</v>
+        <v>1.02362</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2388,11 +2388,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0.94,0.95|0.99,1.00|0.969,0.970|</t>
+          <t>1.00,1.01|0.97,0.98|1.03,1.04|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1.02063</v>
+        <v>0.98362</v>
       </c>
       <c r="C157" t="n">
         <v>1</v>
@@ -2401,11 +2401,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.06,1.07|0.986,0.987|</t>
+          <t>0.98,0.99|1.02,1.03|0.99,1.00|1.02,1.03|0.99,1.00|</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.990751</v>
+        <v>1.00653</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2414,24 +2414,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.996,0.997|</t>
+          <t>0.99,1.00|0.98,0.99|1.01,1.02|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.9978813333333334</v>
+        <v>1.00493</v>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.04,1.05|0.977,0.978|</t>
+          <t>1.02,1.03|1.03,1.04|1.01,1.02|1.03,1.04|1.04,1.05|</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.974654</v>
+        <v>0.979117</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2440,24 +2440,24 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|0.996,0.997|</t>
+          <t>1.01,1.02|1.00,1.01|1.01,1.02|1.00,1.01|1.02,1.03|</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1.04515</v>
+        <v>0.9865935</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.03,1.04|0.994,0.995|</t>
+          <t>0.98,0.99|1.02,1.03|0.99,1.00|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.9829369999999999</v>
+        <v>0.989279</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2466,11 +2466,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.026,1.027|</t>
+          <t>1.00,1.01|1.03,1.04|0.97,0.98|1.03,1.04|1.00,1.01|</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.988214</v>
+        <v>0.979058</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -2479,11 +2479,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.962,0.963|</t>
+          <t>0.98,0.99|0.97,0.98|0.97,0.98|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.992806</v>
+        <v>0.998966</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2492,11 +2492,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1.03,1.04|0.96,0.97|1.032,1.033|</t>
+          <t>0.98,0.99|1.01,1.02|1.00,1.01|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1.01477</v>
+        <v>0.9825</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -2505,11 +2505,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|0.987,0.988|</t>
+          <t>0.96,0.97|0.98,0.99|0.99,1.00|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.989796</v>
+        <v>0.980392</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2518,37 +2518,37 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|1.002,1.003|</t>
+          <t>1.03,1.04|0.99,1.00|0.96,0.97|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.997382</v>
+        <v>0.971893</v>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.973,0.974|</t>
+          <t>0.99,1.00|1.01,1.02|1.00,1.01|1.01,1.02|1.01,1.02|</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1.00805</v>
+        <v>1.030685</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.99,1.00|0.993,0.994|</t>
+          <t>0.98,0.99|0.98,0.99|0.99,1.00|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.991543</v>
+        <v>1.00185</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2557,24 +2557,24 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.045,1.046|</t>
+          <t>0.98,0.99|1.00,1.01|0.98,0.99|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1.00094</v>
+        <v>1.0000895</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.00,1.01|0.994,0.995|</t>
+          <t>0.98,0.99|0.99,1.00|1.01,1.02|0.99,1.00|0.97,0.98|</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0.989936</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -2583,24 +2583,24 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.982,0.983|</t>
+          <t>1.00,1.01|1.00,1.01|0.98,0.99|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1.02764</v>
+        <v>0.9946505</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.04,1.05|0.988,0.989|</t>
+          <t>1.00,1.01|1.00,1.01|1.01,1.02|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1.03248</v>
+        <v>1.00904</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -2609,37 +2609,37 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.011,1.012|</t>
+          <t>1.00,1.01|1.02,1.03|0.99,1.00|1.02,1.03|0.98,0.99|</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.9989980000000001</v>
+        <v>1.00787</v>
       </c>
       <c r="C174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.991,0.992|</t>
+          <t>0.98,0.99|1.00,1.01|0.97,0.98|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1.004476666666667</v>
+        <v>0.996602</v>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|0.967,0.968|</t>
+          <t>0.96,0.97|0.99,1.00|1.00,1.01|0.99,1.00|0.99,1.00|</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1.00923</v>
+        <v>1.00749</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -2648,24 +2648,24 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.02,1.03|1.052,1.053|</t>
+          <t>0.98,0.99|0.99,1.00|1.00,1.01|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1.01861</v>
+        <v>0.9786333333333332</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|1.015,1.016|</t>
+          <t>1.03,1.04|0.96,0.97|0.99,1.00|0.96,0.97|1.00,1.01|</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.997416</v>
+        <v>0.9894539999999999</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2674,11 +2674,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|1.011,1.012|</t>
+          <t>0.98,0.99|1.00,1.01|1.01,1.02|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1.01682</v>
+        <v>0.984909</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2687,24 +2687,24 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.97,0.98|0.984,0.985|</t>
+          <t>0.98,0.99|1.01,1.02|1.01,1.02|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.994609</v>
+        <v>1.0114635</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.996,0.997|</t>
+          <t>1.01,1.02|1.01,1.02|0.99,1.00|1.01,1.02|1.02,1.03|</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.99515</v>
+        <v>0.991416</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2713,24 +2713,24 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|0.984,0.985|</t>
+          <t>0.99,1.00|0.99,1.00|1.01,1.02|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.9906975</v>
+        <v>0.997375</v>
       </c>
       <c r="C182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.95,0.96|0.974,0.975|</t>
+          <t>1.00,1.01|0.95,0.96|0.97,0.98|0.95,0.96|1.02,1.03|</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1.03285</v>
+        <v>1.02067</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -2739,11 +2739,11 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.96,0.97|1.031,1.032|</t>
+          <t>0.99,1.00|1.01,1.02|0.99,1.00|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1.00162</v>
+        <v>1.00522</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2752,24 +2752,24 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.005,1.006|</t>
+          <t>0.97,0.98|1.01,1.02|0.98,0.99|1.01,1.02|1.01,1.02|</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.996124</v>
+        <v>0.9990019999999999</v>
       </c>
       <c r="C185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|1.008,1.009|</t>
+          <t>1.00,1.01|0.97,0.98|0.97,0.98|0.97,0.98|0.99,1.00|</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.993814</v>
+        <v>0.986193</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2778,11 +2778,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.97,0.98|1.007,1.008|</t>
+          <t>0.95,0.96|0.97,0.98|1.06,1.07|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1.01379</v>
+        <v>0.943675</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -2791,11 +2791,11 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.958,0.959|</t>
+          <t>0.99,1.00|0.96,0.97|0.96,0.97|0.96,0.97|1.01,1.02|</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.96604</v>
+        <v>0.9812</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2804,11 +2804,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|1.005,1.006|</t>
+          <t>0.94,0.95|0.98,0.99|1.00,1.01|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1.01053</v>
+        <v>1.01024</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2817,24 +2817,24 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.99,1.00|0.971,0.972|</t>
+          <t>0.99,1.00|1.00,1.01|0.99,1.00|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.992089</v>
+        <v>0.999203</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.97,0.98|1.003,1.004|</t>
+          <t>0.99,1.00|0.99,1.00|0.95,0.96|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1.00409</v>
+        <v>1.0026</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -2843,11 +2843,11 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.991,0.992|</t>
+          <t>1.00,1.01|0.95,0.96|0.99,1.00|0.95,0.96|1.00,1.01|</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.898575</v>
+        <v>0.987047</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -2856,24 +2856,24 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.004,1.005|</t>
+          <t>0.97,0.98|0.95,0.96|0.99,1.00|0.95,0.96|1.01,1.02|</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1.006325</v>
+        <v>0.9959710000000001</v>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.04,1.05|0.923,0.924|</t>
+          <t>1.00,1.01|0.98,0.99|0.97,0.98|0.98,0.99|1.02,1.03|</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1.04618</v>
+        <v>1.01382</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -2882,11 +2882,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.99,1.00|1.007,1.008|</t>
+          <t>1.04,1.05|0.97,0.98|0.98,0.99|0.97,0.98|0.99,1.00|</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1.00759</v>
+        <v>0.97201</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2895,11 +2895,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.99,1.00|1.002,1.003|</t>
+          <t>1.02,1.03|0.93,0.94|1.01,1.02|0.93,0.94|1.00,1.01|</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.996422</v>
+        <v>1.03285</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2908,37 +2908,37 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.94,0.95|0.997,0.998|</t>
+          <t>0.98,0.99|1.00,1.01|0.99,1.00|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.9815469999999999</v>
+        <v>1.01184875</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.992,0.993|</t>
+          <t>0.94,0.95|0.95,0.96|0.98,0.99|0.95,0.96|1.02,1.03|</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.9952546666666667</v>
+        <v>1.06963</v>
       </c>
       <c r="C198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.995,0.996|</t>
+          <t>0.99,1.00|1.00,1.01|0.98,0.99|1.00,1.01|1.03,1.04|</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1.01194</v>
+        <v>0.981959</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -2947,11 +2947,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|1.006,1.007|</t>
+          <t>0.97,0.98|0.97,0.98|0.97,0.98|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1.0067</v>
+        <v>1.01375</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -2960,11 +2960,11 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.01,1.02|0.993,0.994|</t>
+          <t>0.99,1.00|1.00,1.01|1.00,1.01|1.00,1.01|0.99,1.00|</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1.00225</v>
+        <v>1.00194</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -2973,11 +2973,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.005,1.006|</t>
+          <t>1.00,1.01|0.98,0.99|1.02,1.03|0.98,0.99|1.04,1.05|</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.986381</v>
+        <v>1.00506</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -2986,11 +2986,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|1.016,1.017|</t>
+          <t>0.98,0.99|1.02,1.03|1.00,1.01|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1.02694</v>
+        <v>0.997416</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -2999,11 +2999,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.89,0.90|0.898,0.899|</t>
+          <t>1.00,1.01|0.97,0.98|0.98,0.99|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.958848</v>
+        <v>1.01532</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3012,11 +3012,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1.04,1.05|1.02,1.03|1.019,1.020|</t>
+          <t>1.02,1.03|1.06,1.07|1.00,1.01|1.06,1.07|1.00,1.01|</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.994492</v>
+        <v>0.997297</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -3025,37 +3025,37 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.98,0.99|1.021,1.022|</t>
+          <t>0.98,0.99|0.97,0.98|0.97,0.98|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.9919790000000001</v>
+        <v>0.998269</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.98,0.99|0.972,0.973|</t>
+          <t>0.99,1.00|1.00,1.01|0.99,1.00|1.00,1.01|0.99,1.00|</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.987891</v>
+        <v>1.01061</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.99,1.00|1.036,1.037|</t>
+          <t>0.98,0.99|1.04,1.05|0.99,1.00|1.04,1.05|1.00,1.01|</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.986476</v>
+        <v>1.02694</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -3064,11 +3064,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.01,1.02|0.981,0.982|</t>
+          <t>1.02,1.03|0.96,0.97|0.94,0.95|0.96,0.97|1.02,1.03|</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1.00662</v>
+        <v>0.974865</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -3077,11 +3077,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.01,1.02|1.035,1.036|</t>
+          <t>1.01,1.02|0.99,1.00|1.01,1.02|0.99,1.00|0.99,1.00|</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1.00297</v>
+        <v>1.0067</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -3090,11 +3090,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.01,1.02|1.007,1.008|</t>
+          <t>0.97,0.98|0.98,0.99|0.99,1.00|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1.00787</v>
+        <v>1.00698</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -3103,11 +3103,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.97,0.98|1.005,1.006|</t>
+          <t>1.00,1.01|0.95,0.96|0.98,0.99|0.95,0.96|1.02,1.03|</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0.995748</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -3116,11 +3116,11 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.98,0.99|1.012,1.013|</t>
+          <t>1.02,1.03|1.01,1.02|1.01,1.02|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1.02399</v>
+        <v>0.9846549999999999</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -3129,11 +3129,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>0.95,0.96|1.01,1.02|1.000,1.001|</t>
+          <t>0.98,0.99|1.01,1.02|1.02,1.03|1.01,1.02|1.02,1.03|</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1.00263</v>
+        <v>0.956685</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -3142,11 +3142,11 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|0.974,0.975|</t>
+          <t>1.00,1.01|1.01,1.02|1.00,1.01|1.01,1.02|1.02,1.03|</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1.01117</v>
+        <v>1.02312</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -3155,24 +3155,24 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.004,1.005|</t>
+          <t>0.98,0.99|1.00,1.01|1.00,1.01|1.00,1.01|1.02,1.03|</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.9935902499999999</v>
+        <v>1.00431</v>
       </c>
       <c r="C216" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.97,0.98|0.992,0.993|</t>
+          <t>0.98,0.99|1.00,1.01|1.00,1.01|1.00,1.01|0.99,1.00|</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.988273</v>
+        <v>0.964365</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -3181,11 +3181,11 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.014,1.015|</t>
+          <t>1.02,1.03|0.99,1.00|0.99,1.00|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.971893</v>
+        <v>1.01336</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -3194,37 +3194,37 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.956,0.957|</t>
+          <t>1.01,1.02|0.98,0.99|1.00,1.01|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.963618</v>
+        <v>1.006533</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.977,0.978|</t>
+          <t>0.99,1.00|1.00,1.01|1.00,1.01|1.00,1.01|1.02,1.03|</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1.03166</v>
+        <v>0.9944483333333333</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.97,0.98|0.988,0.989|</t>
+          <t>1.00,1.01|1.03,1.04|0.98,0.99|1.03,1.04|0.99,1.00|</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1.00736</v>
+        <v>1.00813</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -3233,11 +3233,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.986,0.987|</t>
+          <t>0.97,0.98|0.98,0.99|1.04,1.05|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.984909</v>
+        <v>1.01309</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -3246,37 +3246,37 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.006,1.007|</t>
+          <t>1.02,1.03|1.07,1.08|0.97,0.98|1.07,1.08|1.00,1.01|</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.9938899999999999</v>
+        <v>1.01861</v>
       </c>
       <c r="C223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.989,0.990|</t>
+          <t>1.00,1.01|1.04,1.05|0.98,0.99|1.04,1.05|1.02,1.03|</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.979564</v>
+        <v>1.00243</v>
       </c>
       <c r="C224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1.06,1.07|1.02,1.03|0.974,0.975|</t>
+          <t>0.97,0.98|0.98,0.99|1.00,1.01|0.98,0.99|0.99,1.00|</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.955009</v>
+        <v>1.00535</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -3285,37 +3285,37 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1.04,1.05|0.99,1.00|1.017,1.018|</t>
+          <t>1.00,1.01|0.98,0.99|1.01,1.02|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.974265</v>
+        <v>1.00961</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.01,1.02|0.989,0.990|</t>
+          <t>1.00,1.01|1.01,1.02|1.01,1.02|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.9918905</v>
+        <v>0.990126</v>
       </c>
       <c r="C227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.98,0.99|1.009,1.010|</t>
+          <t>1.02,1.03|1.02,1.03|1.00,1.01|1.02,1.03|0.99,1.00|</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>1.00532</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -3324,24 +3324,24 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|1.017,1.018|</t>
+          <t>1.01,1.02|1.00,1.01|1.00,1.01|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1.00243</v>
+        <v>1.00366075</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.003,1.004|</t>
+          <t>0.98,0.99|1.03,1.04|0.99,1.00|1.03,1.04|1.02,1.03|</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.9744350000000001</v>
+        <v>1.0128</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
@@ -3350,11 +3350,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.03,1.04|1.005,1.006|</t>
+          <t>0.99,1.00|0.98,0.99|0.98,0.99|0.98,0.99|1.04,1.05|</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1.00602</v>
+        <v>0.974576</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3363,11 +3363,11 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.990,0.991|</t>
+          <t>1.01,1.02|0.99,1.00|0.98,0.99|0.99,1.00|1.02,1.03|</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.989843</v>
+        <v>0.986654</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -3376,24 +3376,24 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.018,1.019|</t>
+          <t>0.99,1.00|1.00,1.01|0.99,1.00|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.991672</v>
+        <v>1.0103695</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.97,0.98|1.031,1.032|</t>
+          <t>0.97,0.98|1.03,1.04|0.99,1.00|1.03,1.04|1.00,1.01|</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.99938</v>
+        <v>0.9594200000000001</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3402,11 +3402,11 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.97,0.98|0.985,0.986|</t>
+          <t>0.98,0.99|0.99,1.00|1.01,1.02|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.994302</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -3415,11 +3415,11 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.02,1.03|1.010,1.011|</t>
+          <t>0.99,1.00|0.99,1.00|1.06,1.07|0.99,1.00|0.89,0.90|</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.979058</v>
+        <v>0.898719</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3428,11 +3428,11 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.03,1.04|1.008,1.009|</t>
+          <t>1.00,1.01|0.96,0.97|1.01,1.02|0.96,0.97|1.01,1.02|</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1.02362</v>
+        <v>1.00814</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -3441,24 +3441,24 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.002,1.003|</t>
+          <t>1.04,1.05|0.98,0.99|0.99,1.00|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.9974705</v>
+        <v>0.9766359999999999</v>
       </c>
       <c r="C238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|1.000,1.001|</t>
+          <t>1.00,1.01|0.98,0.99|1.00,1.01|0.98,0.99|1.02,1.03|</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1.06162</v>
+        <v>0.992327</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3467,11 +3467,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|1.014,1.015|</t>
+          <t>1.01,1.02|0.99,1.00|0.98,0.99|0.99,1.00|1.07,1.08|</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1.01529</v>
+        <v>0.955009</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3480,11 +3480,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.97,0.98|1.002,1.003|</t>
+          <t>0.97,0.98|1.01,1.02|0.98,0.99|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.97156</v>
+        <v>0.973316</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3493,11 +3493,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.95,0.96|0.996,0.997|</t>
+          <t>1.03,1.04|0.96,0.97|1.00,1.01|0.96,0.97|1.02,1.03|</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1.00087</v>
+        <v>0.984677</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3506,11 +3506,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>0.96,0.97|0.99,1.00|1.015,1.016|</t>
+          <t>0.97,0.98|1.00,1.01|1.01,1.02|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.993072</v>
+        <v>1.00826</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3519,11 +3519,11 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.96,0.97|1.001,1.002|</t>
+          <t>0.99,1.00|0.99,1.00|1.03,1.04|0.99,1.00|1.06,1.07|</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0.99137</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3532,11 +3532,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.062,1.063|</t>
+          <t>0.99,1.00|0.99,1.00|0.95,0.96|0.99,1.00|1.05,1.06|</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1.00165</v>
+        <v>1.02082</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -3545,24 +3545,24 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|1.020,1.021|</t>
+          <t>0.97,0.98|0.99,1.00|1.00,1.01|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1.018723333333333</v>
+        <v>0.9960599999999999</v>
       </c>
       <c r="C246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.023,1.024|</t>
+          <t>0.98,0.99|0.95,0.96|0.89,0.90|0.95,0.96|1.00,1.01|</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.986312</v>
+        <v>0.96604</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3571,37 +3571,37 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|1.000,1.001|</t>
+          <t>1.01,1.02|1.01,1.02|0.97,0.98|1.01,1.02|1.01,1.02|</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1.0009</v>
+        <v>1.01199</v>
       </c>
       <c r="C248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>0.93,0.94|0.98,0.99|0.996,0.997|</t>
+          <t>0.98,0.99|0.98,0.99|1.00,1.01|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1.00415</v>
+        <v>1.00663</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.015,1.016|</t>
+          <t>1.02,1.03|1.02,1.03|1.01,1.02|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.991416</v>
+        <v>1.0022</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3610,11 +3610,11 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>0.96,0.97|0.95,0.96|1.042,1.043|</t>
+          <t>1.00,1.01|1.00,1.01|1.01,1.02|1.00,1.01|1.03,1.04|</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.997475</v>
+        <v>0.987124</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3623,11 +3623,11 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.997,0.998|</t>
+          <t>1.00,1.01|0.80,0.81|0.99,1.00|0.80,0.81|1.01,1.02|</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1.02186</v>
+        <v>0.958848</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3636,11 +3636,11 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|0.979,0.980|</t>
+          <t>0.98,0.99|0.99,1.00|0.94,0.95|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1.01451</v>
+        <v>0.998157</v>
       </c>
       <c r="C253" t="n">
         <v>1</v>
@@ -3649,11 +3649,11 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.001,1.002|</t>
+          <t>0.97,0.98|0.98,0.99|1.06,1.07|0.98,0.99|1.06,1.07|</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.999071</v>
+        <v>1.01571</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3662,11 +3662,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.01,1.02|0.983,0.984|</t>
+          <t>0.99,1.00|1.01,1.02|1.00,1.01|1.01,1.02|1.02,1.03|</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.997162</v>
+        <v>1.01337</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3675,37 +3675,37 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|1.000,1.001|</t>
+          <t>1.00,1.01|0.98,0.99|1.00,1.01|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1.002215</v>
+        <v>1.0024692</v>
       </c>
       <c r="C256" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.028,1.029|</t>
+          <t>0.98,0.99|0.98,0.99|1.01,1.02|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1.016585</v>
+        <v>1.01572</v>
       </c>
       <c r="C257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.012,1.013|</t>
+          <t>0.98,0.99|1.02,1.03|1.02,1.03|1.02,1.03|1.03,1.04|</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1.00493</v>
+        <v>1.00489</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3714,11 +3714,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.98,0.99|0.991,0.992|</t>
+          <t>0.99,1.00|0.99,1.00|0.97,0.98|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1.00988</v>
+        <v>1.00162</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3727,37 +3727,37 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.987,0.988|</t>
+          <t>1.01,1.02|1.02,1.03|1.03,1.04|1.02,1.03|1.02,1.03|</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1.000286</v>
+        <v>0.986991</v>
       </c>
       <c r="C260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.00,1.01|1.004,1.005|</t>
+          <t>0.99,1.00|0.91,0.92|0.97,0.98|0.91,0.92|1.00,1.01|</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.9997524999999999</v>
+        <v>1.00777</v>
       </c>
       <c r="C261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|0.975,0.976|</t>
+          <t>1.00,1.01|1.04,1.05|0.98,0.99|1.04,1.05|0.99,1.00|</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.9959710000000001</v>
+        <v>0.993135</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3766,11 +3766,11 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>0.95,0.96|1.01,1.02|1.006,1.007|</t>
+          <t>0.96,0.97|0.99,1.00|1.01,1.02|0.99,1.00|0.98,0.99|</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.999016</v>
+        <v>0.96793</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3779,11 +3779,11 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>0.95,0.96|0.97,0.98|1.020,1.021|</t>
+          <t>0.99,1.00|1.01,1.02|1.00,1.01|1.01,1.02|1.06,1.07|</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.988671</v>
+        <v>0.974265</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
@@ -3792,24 +3792,24 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.982,0.983|</t>
+          <t>0.98,0.99|1.00,1.01|0.96,0.97|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.986842</v>
+        <v>0.998532</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.999,1.000|</t>
+          <t>0.99,1.00|0.97,0.98|0.98,0.99|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1.00753</v>
+        <v>1.0405</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3818,11 +3818,11 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.996,0.997|</t>
+          <t>0.99,1.00|1.03,1.04|0.97,0.98|1.03,1.04|1.02,1.03|</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.997441</v>
+        <v>1.01031</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -3831,24 +3831,24 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|1.013,1.014|</t>
+          <t>1.01,1.02|1.05,1.06|0.99,1.00|1.05,1.06|0.99,1.00|</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1.000109</v>
+        <v>0.969697</v>
       </c>
       <c r="C268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.01,1.02|1.016,1.017|</t>
+          <t>1.00,1.01|0.97,0.98|0.99,1.00|0.97,0.98|1.05,1.06|</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1.00531</v>
+        <v>0.991018</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3857,11 +3857,11 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.000,1.001|</t>
+          <t>0.98,0.99|0.94,0.95|0.99,1.00|0.94,0.95|1.02,1.03|</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.983761</v>
+        <v>0.989775</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3870,11 +3870,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.01,1.02|1.005,1.006|</t>
+          <t>1.00,1.01|1.01,1.02|0.98,0.99|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.984536</v>
+        <v>0.997194</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3883,24 +3883,24 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.964,0.965|</t>
+          <t>1.01,1.02|0.99,1.00|0.99,1.00|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>1.00332125</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.026,1.027|</t>
+          <t>1.04,1.05|1.02,1.03|0.98,0.99|1.02,1.03|1.02,1.03|</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1.00672</v>
+        <v>1.03509</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3909,11 +3909,11 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>0.96,0.97|1.01,1.02|0.989,0.990|</t>
+          <t>1.01,1.02|0.98,0.99|1.02,1.03|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.994792</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3922,37 +3922,37 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.000,1.001|</t>
+          <t>0.99,1.00|1.03,1.04|1.01,1.02|1.03,1.04|1.02,1.03|</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1.0044238</v>
+        <v>1.0025</v>
       </c>
       <c r="C275" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|1.000,1.001|</t>
+          <t>1.03,1.04|1.00,1.01|0.98,0.99|1.00,1.01|1.02,1.03|</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.999757</v>
+        <v>0.981077</v>
       </c>
       <c r="C276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|1.007,1.008|</t>
+          <t>1.00,1.01|1.03,1.04|0.99,1.00|1.03,1.04|1.02,1.03|</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.99278</v>
+        <v>0.986476</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -3961,11 +3961,11 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.97,0.98|0.989,0.990|</t>
+          <t>1.00,1.01|1.01,1.02|0.99,1.00|1.01,1.02|1.01,1.02|</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1.00811</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -3974,24 +3974,24 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.006,1.007|</t>
+          <t>1.02,1.03|0.98,0.99|1.00,1.01|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.9977944999999999</v>
+        <v>0.991793</v>
       </c>
       <c r="C279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.032,1.033|</t>
+          <t>1.02,1.03|0.99,1.00|0.98,0.99|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>1.0084</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -4000,50 +4000,50 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.982,0.983|</t>
+          <t>1.00,1.01|1.00,1.01|0.99,1.00|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.9772729999999999</v>
+        <v>0.9975483636363637</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1.03,1.04|1.00,1.01|0.984,0.985|</t>
+          <t>0.98,0.99|0.99,1.00|1.00,1.01|0.99,1.00|0.99,1.00|</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1.0041</v>
+        <v>1.00099</v>
       </c>
       <c r="C282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>0.96,0.97|0.99,1.00|0.987,0.988|</t>
+          <t>1.00,1.01|0.99,1.00|1.00,1.01|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.987097</v>
+        <v>1.00588</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.99,1.00|0.977,0.978|</t>
+          <t>0.99,1.00|0.96,0.97|0.95,0.96|0.96,0.97|1.03,1.04|</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.982368</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -4052,11 +4052,11 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.96,0.97|0.987,0.988|</t>
+          <t>0.99,1.00|0.87,0.88|0.99,1.00|0.87,0.88|1.01,1.02|</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.987047</v>
+        <v>0.993884</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -4065,11 +4065,11 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|1.003,1.004|</t>
+          <t>0.97,0.98|1.08,1.09|1.01,1.02|1.08,1.09|1.01,1.02|</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.979739</v>
+        <v>0.992889</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -4078,50 +4078,50 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.01,1.02|0.979,0.980|</t>
+          <t>0.98,0.99|1.00,1.01|1.00,1.01|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.992467</v>
+        <v>0.9851576666666667</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.000,1.001|</t>
+          <t>1.00,1.01|1.00,1.01|1.02,1.03|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1.006222777777778</v>
+        <v>1.00773</v>
       </c>
       <c r="C288" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|1.009,1.010|</t>
+          <t>0.99,1.00|1.00,1.01|0.98,0.99|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1.00583</v>
+        <v>1.003669333333333</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.97,0.98|1.061,1.062|</t>
+          <t>1.04,1.05|0.93,0.94|0.98,0.99|0.93,0.94|1.00,1.01|</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.9837399999999999</v>
+        <v>0.940928</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -4130,11 +4130,11 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|0.983,0.984|</t>
+          <t>1.01,1.02|0.99,1.00|1.01,1.02|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.989726</v>
+        <v>1.00199</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -4143,11 +4143,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.013,1.014|</t>
+          <t>1.00,1.01|1.01,1.02|0.96,0.97|1.01,1.02|1.01,1.02|</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.996833</v>
+        <v>1.04515</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -4156,11 +4156,11 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.04,1.05|0.987,0.988|</t>
+          <t>1.01,1.02|0.98,0.99|0.99,1.00|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1.00251</v>
+        <v>0.949609</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -4169,24 +4169,24 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.01,1.02|1.052,1.053|</t>
+          <t>0.97,0.98|1.03,1.04|0.98,0.99|1.03,1.04|1.00,1.01|</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.997449</v>
+        <v>0.994159</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.994,0.995|</t>
+          <t>0.98,0.99|0.98,0.99|0.97,0.98|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1.00395</v>
+        <v>1.00879</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -4195,24 +4195,24 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.96,0.97|1.012,1.013|</t>
+          <t>0.99,1.00|0.99,1.00|1.00,1.01|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.997382</v>
+        <v>0.9992904444444446</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.96,0.97|0.997,0.998|</t>
+          <t>1.01,1.02|1.00,1.01|1.05,1.06|1.00,1.01|1.02,1.03|</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1.01395</v>
+        <v>1.02821</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -4221,11 +4221,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|1.012,1.013|</t>
+          <t>0.98,0.99|0.99,1.00|0.97,0.98|0.99,1.00|0.99,1.00|</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1.05822</v>
+        <v>1.00321</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -4234,11 +4234,11 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.989,0.990|</t>
+          <t>0.97,0.98|1.01,1.02|1.01,1.02|1.01,1.02|1.01,1.02|</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>1.02534</v>
       </c>
       <c r="C299" t="n">
         <v>1</v>
@@ -4247,11 +4247,11 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.972,0.973|</t>
+          <t>1.04,1.05|0.99,1.00|1.01,1.02|0.99,1.00|1.09,1.10|</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0.985876</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -4260,24 +4260,24 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.991,0.992|</t>
+          <t>0.99,1.00|0.98,0.99|1.00,1.01|0.98,0.99|1.02,1.03|</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1.00672</v>
+        <v>0.997085</v>
       </c>
       <c r="C301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|0.976,0.977|</t>
+          <t>1.03,1.04|0.95,0.96|0.99,1.00|0.95,0.96|1.02,1.03|</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1.06963</v>
+        <v>1.03325</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -4286,24 +4286,24 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|0.984,0.985|</t>
+          <t>0.99,1.00|0.98,0.99|1.00,1.01|0.98,0.99|0.99,1.00|</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1.01202</v>
+        <v>0.9939534999999999</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|1.024,1.025|</t>
+          <t>1.00,1.01|0.97,0.98|1.01,1.02|0.97,0.98|1.04,1.05|</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1.01084</v>
+        <v>0.982368</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -4312,11 +4312,11 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|0.985,0.986|</t>
+          <t>1.02,1.03|1.03,1.04|1.01,1.02|1.03,1.04|1.00,1.01|</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1.0127</v>
+        <v>0.988125</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -4325,11 +4325,11 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.991,0.992|</t>
+          <t>1.02,1.03|0.96,0.97|0.99,1.00|0.96,0.97|1.00,1.01|</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.980989</v>
+        <v>0.97238</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -4338,24 +4338,24 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|1.015,1.016|</t>
+          <t>0.98,0.99|1.03,1.04|0.96,0.97|1.03,1.04|1.01,1.02|</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1.000616</v>
+        <v>0.962441</v>
       </c>
       <c r="C307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|0.980,0.981|</t>
+          <t>1.01,1.02|0.97,0.98|0.98,0.99|0.97,0.98|1.02,1.03|</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.97238</v>
+        <v>1.00404</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -4364,24 +4364,24 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.001,1.002|</t>
+          <t>0.98,0.99|0.99,1.00|0.95,0.96|0.99,1.00|1.04,1.05|</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1.003588</v>
+        <v>1.01477</v>
       </c>
       <c r="C309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.95,0.96|1.015,1.016|</t>
+          <t>1.00,1.01|0.95,0.96|1.00,1.01|0.95,0.96|1.00,1.01|</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1.021</v>
+        <v>0.992806</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -4390,11 +4390,11 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.98,0.99|1.008,1.009|</t>
+          <t>0.96,0.97|1.03,1.04|1.01,1.02|1.03,1.04|1.00,1.01|</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1.00749</v>
+        <v>1.01389</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -4403,24 +4403,24 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.01,1.02|0.990,0.991|</t>
+          <t>0.98,0.99|0.98,0.99|1.00,1.01|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.983992</v>
+        <v>1.020941</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|0.993,0.994|</t>
+          <t>1.01,1.02|0.98,0.99|1.01,1.02|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1.02713</v>
+        <v>0.986564</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -4429,11 +4429,11 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|0.994,0.995|</t>
+          <t>1.06,1.07|0.97,0.98|1.00,1.01|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.987437</v>
+        <v>1.05234</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -4442,11 +4442,11 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.96,0.97|1.007,1.008|</t>
+          <t>1.00,1.01|1.03,1.04|1.01,1.02|1.03,1.04|1.05,1.06|</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.9938709999999999</v>
+        <v>0.984293</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -4455,24 +4455,24 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|0.992,0.993|</t>
+          <t>0.99,1.00|1.03,1.04|0.99,1.00|1.03,1.04|1.00,1.01|</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.997036</v>
+        <v>0.986116</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|0.994,0.995|</t>
+          <t>1.02,1.03|1.01,1.02|0.98,0.99|1.01,1.02|1.01,1.02|</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1.00521</v>
+        <v>1.01483</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -4481,11 +4481,11 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>0.95,0.96|1.06,1.07|1.021,1.022|</t>
+          <t>0.96,0.97|0.98,0.99|1.03,1.04|0.98,0.99|1.03,1.04|</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.992889</v>
+        <v>1.00314</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -4494,11 +4494,11 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.97,0.98|0.992,0.993|</t>
+          <t>0.95,0.96|1.02,1.03|1.01,1.02|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.943675</v>
+        <v>0.984576</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -4507,11 +4507,11 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.003,1.004|</t>
+          <t>1.00,1.01|1.01,1.02|0.99,1.00|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1.0011375</v>
+        <v>0.9952354999999999</v>
       </c>
       <c r="C320" t="n">
         <v>2</v>
@@ -4520,11 +4520,11 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.008,1.009|</t>
+          <t>0.97,0.98|0.95,0.96|1.00,1.01|0.95,0.96|1.01,1.02|</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1.02894</v>
+        <v>1.01202</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -4533,24 +4533,24 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.97,0.98|1.011,1.012|</t>
+          <t>0.99,1.00|1.02,1.03|0.99,1.00|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1.01336</v>
+        <v>0.999518</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|1.050,1.051|</t>
+          <t>0.99,1.00|1.00,1.01|1.02,1.03|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.969697</v>
+        <v>0.99157</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
@@ -4559,24 +4559,24 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.02,1.03|1.001,1.002|</t>
+          <t>0.99,1.00|1.02,1.03|1.02,1.03|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1.0039645</v>
+        <v>1.06162</v>
       </c>
       <c r="C324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|0.985,0.986|</t>
+          <t>0.97,0.98|0.96,0.97|0.99,1.00|0.96,0.97|0.99,1.00|</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.994129</v>
+        <v>0.987743</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
@@ -4585,11 +4585,11 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.996,0.997|</t>
+          <t>1.00,1.01|1.01,1.02|0.99,1.00|1.01,1.02|1.04,1.05|</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.9792960000000001</v>
+        <v>1.00912</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4598,11 +4598,11 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.97,0.98|0.997,0.998|</t>
+          <t>1.01,1.02|1.00,1.01|0.97,0.98|1.00,1.01|0.99,1.00|</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.984111</v>
+        <v>0.996176</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4611,11 +4611,11 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.971,0.972|</t>
+          <t>0.96,0.97|1.00,1.01|0.98,0.99|1.00,1.01|1.02,1.03|</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.988909</v>
+        <v>0.994269</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4624,11 +4624,11 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.962,0.963|</t>
+          <t>1.02,1.03|0.98,0.99|0.99,1.00|0.98,0.99|1.02,1.03|</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.98362</v>
+        <v>0.952381</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4637,24 +4637,24 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.010,1.011|</t>
+          <t>0.99,1.00|1.04,1.05|1.04,1.05|1.04,1.05|1.05,1.06|</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1.027315</v>
+        <v>0.99096</v>
       </c>
       <c r="C330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.95,0.96|1.062,1.063|</t>
+          <t>1.01,1.02|1.02,1.03|0.97,0.98|1.02,1.03|0.99,1.00|</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.979409</v>
+        <v>1.01546</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4663,11 +4663,11 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.016,1.017|</t>
+          <t>1.02,1.03|1.01,1.02|1.05,1.06|1.01,1.02|1.02,1.03|</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.9972220000000001</v>
+        <v>1.0084</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -4676,11 +4676,11 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|1.006,1.007|</t>
+          <t>0.99,1.00|0.97,0.98|0.99,1.00|0.97,0.98|1.03,1.04|</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.980519</v>
+        <v>0.978378</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4689,11 +4689,11 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|0.998,0.999|</t>
+          <t>0.93,0.94|1.01,1.02|0.98,0.99|1.01,1.02|0.99,1.00|</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.997096</v>
+        <v>1.0062</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4702,11 +4702,11 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.970,0.971|</t>
+          <t>1.00,1.01|1.01,1.02|1.02,1.03|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.9887860000000001</v>
+        <v>1.0022</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4715,24 +4715,24 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|0.999,1.000|</t>
+          <t>0.98,0.99|1.00,1.01|0.98,0.99|1.00,1.01|1.09,1.10|</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1.01313</v>
+        <v>0.9798210000000001</v>
       </c>
       <c r="C336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.97,0.98|0.943,0.944|</t>
+          <t>0.99,1.00|0.99,1.00|0.99,1.00|0.99,1.00|1.02,1.03|</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1.01226</v>
+        <v>0.992048</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4741,11 +4741,11 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.012,1.013|</t>
+          <t>1.00,1.01|1.00,1.01|1.03,1.04|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.964525</v>
+        <v>1.00301</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4754,11 +4754,11 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.02,1.03|0.998,0.999|</t>
+          <t>0.99,1.00|0.95,0.96|0.98,0.99|0.95,0.96|1.01,1.02|</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1.0058</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4767,11 +4767,11 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|0.991,0.992|</t>
+          <t>1.04,1.05|0.97,0.98|1.00,1.01|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1.00638</v>
+        <v>1.00758</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4780,11 +4780,11 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|0.964,0.965|</t>
+          <t>0.98,0.99|0.99,1.00|1.01,1.02|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1.02064</v>
+        <v>0.9893690000000001</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -4793,11 +4793,11 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>0.96,0.97|0.99,1.00|0.999,1.000|</t>
+          <t>1.00,1.01|0.95,0.96|1.05,1.06|0.95,0.96|1.01,1.02|</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.92371</v>
+        <v>0.996128</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4806,11 +4806,11 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|1.001,1.002|</t>
+          <t>0.98,0.99|1.08,1.09|0.97,0.98|1.08,1.09|0.99,1.00|</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1.01176</v>
+        <v>0.970278</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4819,11 +4819,11 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.002,1.003|</t>
+          <t>1.01,1.02|1.00,1.01|0.99,1.00|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.994832</v>
+        <v>1.00201</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -4832,11 +4832,11 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.99,1.00|1.024,1.025|</t>
+          <t>0.96,0.97|0.93,0.94|0.95,0.96|0.93,0.94|1.02,1.03|</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1.02047</v>
+        <v>0.9815469999999999</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4845,24 +4845,24 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.98,0.99|0.984,0.985|</t>
+          <t>0.99,1.00|1.02,1.03|1.00,1.01|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.998966</v>
+        <v>1.008585666666667</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.01,1.02|0.981,0.982|</t>
+          <t>0.89,0.90|0.94,0.95|0.89,0.90|0.94,0.95|1.01,1.02|</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1.02118</v>
+        <v>0.990694</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -4871,24 +4871,24 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.998,0.999|</t>
+          <t>0.99,1.00|1.00,1.01|1.03,1.04|1.00,1.01|1.02,1.03|</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1.001902</v>
+        <v>0.986312</v>
       </c>
       <c r="C348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|0.995,0.996|</t>
+          <t>0.99,1.00|1.02,1.03|0.98,0.99|1.02,1.03|1.02,1.03|</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1.02481</v>
+        <v>0.988992</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -4897,24 +4897,24 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.99,1.00|0.980,0.981|</t>
+          <t>0.99,1.00|0.98,0.99|0.99,1.00|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.982439</v>
+        <v>1.00755</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.98,0.99|1.069,1.070|</t>
+          <t>0.98,0.99|0.98,0.99|1.02,1.03|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1.014171</v>
+        <v>1.01063</v>
       </c>
       <c r="C351" t="n">
         <v>2</v>
@@ -4923,24 +4923,24 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|1.009,1.010|</t>
+          <t>0.97,0.98|1.00,1.01|1.00,1.01|1.00,1.01|1.02,1.03|</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.9993319999999999</v>
+        <v>1.05822</v>
       </c>
       <c r="C352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|1.016,1.017|</t>
+          <t>0.99,1.00|1.01,1.02|1.01,1.02|1.01,1.02|1.02,1.03|</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.997044</v>
+        <v>1.00094</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -4949,24 +4949,24 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|1.000,1.001|</t>
+          <t>1.01,1.02|0.97,0.98|1.00,1.01|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.9873885</v>
+        <v>1.00409</v>
       </c>
       <c r="C354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.987,0.988|</t>
+          <t>0.97,0.98|0.98,0.99|1.02,1.03|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.993407</v>
+        <v>0.9972220000000001</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -4975,11 +4975,11 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.984,0.985|</t>
+          <t>1.03,1.04|1.00,1.01|0.96,0.97|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.97438</v>
+        <v>0.998043</v>
       </c>
       <c r="C356" t="n">
         <v>1</v>
@@ -4988,50 +4988,50 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.000,1.001|</t>
+          <t>1.01,1.02|0.97,0.98|0.99,1.00|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.9931266666666666</v>
+        <v>0.986842</v>
       </c>
       <c r="C357" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|1.007,1.008|</t>
+          <t>1.00,1.01|1.00,1.01|0.99,1.00|1.00,1.01|0.99,1.00|</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.979127</v>
+        <v>1.0012185</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.001,1.002|</t>
+          <t>0.97,0.98|1.02,1.03|0.99,1.00|1.02,1.03|0.99,1.00|</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.9931115</v>
+        <v>0.9848</v>
       </c>
       <c r="C359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|0.988,0.989|</t>
+          <t>1.02,1.03|1.00,1.01|0.98,0.99|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1.01244</v>
+        <v>0.994885</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -5040,11 +5040,11 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|1.004,1.005|</t>
+          <t>1.02,1.03|1.00,1.01|1.00,1.01|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1.01106</v>
+        <v>0.991063</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -5053,11 +5053,11 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>1.06,1.07|1.00,1.01|0.991,0.992|</t>
+          <t>0.98,0.99|0.96,0.97|1.06,1.07|0.96,0.97|1.01,1.02|</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.985876</v>
+        <v>0.98503</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -5066,24 +5066,24 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.010,1.011|</t>
+          <t>1.01,1.02|1.01,1.02|0.98,0.99|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1.00522</v>
+        <v>0.9962964999999999</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.997,0.998|</t>
+          <t>0.98,0.99|1.03,1.04|1.02,1.03|1.03,1.04|1.01,1.02|</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1.01573</v>
+        <v>0.9880949999999999</v>
       </c>
       <c r="C364" t="n">
         <v>1</v>
@@ -5092,11 +5092,11 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|0.973,0.974|</t>
+          <t>0.97,0.98|0.96,0.97|1.00,1.01|0.96,0.97|0.99,1.00|</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.9893690000000001</v>
+        <v>1.0311</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -5105,11 +5105,11 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.978,0.979|</t>
+          <t>1.02,1.03|1.00,1.01|1.00,1.01|1.00,1.01|1.03,1.04|</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1.01245</v>
+        <v>0.983992</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -5118,24 +5118,24 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.991,0.992|</t>
+          <t>1.00,1.01|1.00,1.01|1.00,1.01|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.998157</v>
+        <v>0.9960623333333333</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|0.949,0.950|</t>
+          <t>0.99,1.00|0.95,0.96|0.95,0.96|0.95,0.96|0.99,1.00|</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1.00093</v>
+        <v>1.04049</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -5144,37 +5144,37 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.99,1.00|1.046,1.047|</t>
+          <t>0.99,1.00|0.98,0.99|1.00,1.01|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1.02679</v>
+        <v>0.9770165</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.995,0.996|</t>
+          <t>0.98,0.99|1.01,1.02|0.97,0.98|1.01,1.02|1.02,1.03|</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1.004796666666667</v>
+        <v>0.994065</v>
       </c>
       <c r="C370" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.02,1.03|0.997,0.998|</t>
+          <t>0.98,0.99|0.99,1.00|0.98,0.99|0.99,1.00|1.03,1.04|</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.988992</v>
+        <v>1.06222</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -5183,11 +5183,11 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.99,1.00|1.000,1.001|</t>
+          <t>1.00,1.01|1.03,1.04|1.02,1.03|1.03,1.04|1.01,1.02|</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.980044</v>
+        <v>0.9837399999999999</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -5196,11 +5196,11 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.008,1.009|</t>
+          <t>1.01,1.02|1.00,1.01|0.99,1.00|1.00,1.01|1.05,1.06|</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1.01199</v>
+        <v>1.00931</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -5209,11 +5209,11 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|1.001,1.002|</t>
+          <t>1.00,1.01|0.98,0.99|0.98,0.99|0.98,0.99|0.99,1.00|</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1.00718</v>
+        <v>0.986341</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -5222,11 +5222,11 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.998,0.999|</t>
+          <t>1.00,1.01|1.02,1.03|0.99,1.00|1.02,1.03|0.99,1.00|</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.999048</v>
+        <v>0.982615</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -5235,11 +5235,11 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.040,1.041|</t>
+          <t>1.00,1.01|0.97,0.98|0.97,0.98|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1.06949</v>
+        <v>0.973359</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -5248,11 +5248,11 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>0.89,0.90|0.89,0.90|1.001,1.002|</t>
+          <t>1.00,1.01|0.96,0.97|1.00,1.01|0.96,0.97|1.01,1.02|</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0.9898169999999999</v>
+        <v>0.9977780000000001</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -5261,24 +5261,24 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|1.008,1.009|</t>
+          <t>0.99,1.00|0.98,0.99|0.99,1.00|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1.017626333333333</v>
+        <v>0.9974225</v>
       </c>
       <c r="C378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.98,0.99|1.026,1.027|</t>
+          <t>0.99,1.00|0.90,0.91|0.99,1.00|0.90,0.91|0.89,0.90|</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.999292</v>
+        <v>0.9898169999999999</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
@@ -5287,11 +5287,11 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.97,0.98|0.973,0.974|</t>
+          <t>1.01,1.02|0.99,1.00|1.00,1.01|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1.00161</v>
+        <v>1.00205</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -5300,24 +5300,24 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|1.006,1.007|</t>
+          <t>1.00,1.01|1.00,1.01|0.97,0.98|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1.01565</v>
+        <v>1.011325</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|0.987,0.988|</t>
+          <t>0.99,1.00|0.95,0.96|1.01,1.02|0.95,0.96|1.01,1.02|</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1.01449</v>
+        <v>1.02064</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -5326,11 +5326,11 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|0.994,0.995|</t>
+          <t>1.01,1.02|0.98,0.99|1.00,1.01|0.98,0.99|1.02,1.03|</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1.02493</v>
+        <v>1.02713</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -5339,11 +5339,11 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|1.015,1.016|</t>
+          <t>0.97,0.98|1.02,1.03|0.98,0.99|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.999131</v>
+        <v>1.02497</v>
       </c>
       <c r="C384" t="n">
         <v>1</v>
@@ -5352,11 +5352,11 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.937,0.938|</t>
+          <t>0.99,1.00|1.04,1.05|0.99,1.00|1.04,1.05|1.00,1.01|</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.989775</v>
+        <v>1.04866</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -5365,24 +5365,24 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.025,1.026|</t>
+          <t>0.99,1.00|0.95,0.96|1.00,1.01|0.95,0.96|1.00,1.01|</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.97628</v>
+        <v>0.9868604999999999</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.005,1.006|</t>
+          <t>1.00,1.01|1.01,1.02|1.00,1.01|1.01,1.02|1.01,1.02|</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>1.00081</v>
+        <v>0.993097</v>
       </c>
       <c r="C387" t="n">
         <v>1</v>
@@ -5391,37 +5391,37 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|1.020,1.021|</t>
+          <t>1.00,1.01|1.00,1.01|0.97,0.98|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>1.012995</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.97,0.98|1.013,1.014|</t>
+          <t>1.00,1.01|0.98,0.99|1.01,1.02|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.999343</v>
+        <v>0.9853575</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.01,1.02|1.009,1.010|</t>
+          <t>0.99,1.00|1.01,1.02|0.98,0.99|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1.0017715</v>
+        <v>0.9972144999999999</v>
       </c>
       <c r="C390" t="n">
         <v>2</v>
@@ -5430,37 +5430,37 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.96,0.97|1.003,1.004|</t>
+          <t>1.00,1.01|1.00,1.01|1.00,1.01|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.984677</v>
+        <v>1.005209</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.969,0.970|</t>
+          <t>1.00,1.01|0.98,0.99|0.98,0.99|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1.01749</v>
+        <v>1.0066205</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.013,1.014|</t>
+          <t>1.02,1.03|1.04,1.05|0.96,0.97|1.04,1.05|1.04,1.05|</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1.00781</v>
+        <v>0.994492</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -5469,37 +5469,37 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.003,1.004|</t>
+          <t>1.01,1.02|1.02,1.03|0.97,0.98|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.9957799999999999</v>
+        <v>0.988043</v>
       </c>
       <c r="C394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|0.999,1.000|</t>
+          <t>0.98,0.99|0.98,0.99|1.02,1.03|0.98,0.99|1.04,1.05|</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1.007655</v>
+        <v>0.95928</v>
       </c>
       <c r="C395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>1.04,1.05|0.92,0.93|0.966,0.967|</t>
+          <t>1.02,1.03|0.97,0.98|1.01,1.02|0.97,0.98|1.02,1.03|</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0.977432</v>
+        <v>1.00211</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -5508,11 +5508,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|0.985,0.986|</t>
+          <t>0.96,0.97|1.03,1.04|1.02,1.03|1.03,1.04|1.00,1.01|</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1.00404</v>
+        <v>1.01533</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -5521,11 +5521,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.97,0.98|1.044,1.045|</t>
+          <t>0.98,0.99|0.92,0.93|0.97,0.98|0.92,0.93|0.99,1.00|</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0.912442</v>
+        <v>1.01226</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -5534,63 +5534,63 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.01,1.02|1.002,1.003|</t>
+          <t>1.00,1.01|0.99,1.00|1.01,1.02|0.99,1.00|0.99,1.00|</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1.00489</v>
+        <v>1.000405</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.03,1.04|0.996,0.997|</t>
+          <t>1.01,1.02|1.03,1.04|0.99,1.00|1.03,1.04|1.00,1.01|</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1.03509</v>
+        <v>0.9923850000000001</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>1.03,1.04|1.00,1.01|1.007,1.008|</t>
+          <t>0.99,1.00|0.99,1.00|0.99,1.00|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>1.00912</v>
+        <v>0.9968309999999999</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.010,1.011|</t>
+          <t>1.00,1.01|0.97,0.98|0.99,1.00|0.97,0.98|0.98,0.99|</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1.001285</v>
+        <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>0.96,0.97|0.90,0.91|0.997,0.998|</t>
+          <t>1.01,1.02|0.98,0.99|1.03,1.04|0.98,0.99|0.99,1.00|</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0.98494</v>
+        <v>0.990107</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -5599,11 +5599,11 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|0.979,0.980|</t>
+          <t>0.99,1.00|1.02,1.03|0.97,0.98|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.9894539999999999</v>
+        <v>0.988608</v>
       </c>
       <c r="C404" t="n">
         <v>1</v>
@@ -5612,11 +5612,11 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.94,0.95|1.003,1.004|</t>
+          <t>1.01,1.02|0.97,0.98|0.97,0.98|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0.991682</v>
+        <v>1.01114</v>
       </c>
       <c r="C405" t="n">
         <v>1</v>
@@ -5625,11 +5625,11 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.987,0.988|</t>
+          <t>0.98,0.99|1.04,1.05|1.01,1.02|1.04,1.05|1.03,1.04|</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1.00602</v>
+        <v>1.01484</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -5638,11 +5638,11 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.977,0.978|</t>
+          <t>0.96,0.97|1.02,1.03|1.00,1.01|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1.01375</v>
+        <v>1.02388</v>
       </c>
       <c r="C407" t="n">
         <v>1</v>
@@ -5651,24 +5651,24 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|1.014,1.015|</t>
+          <t>0.99,1.00|0.96,0.97|1.00,1.01|0.96,0.97|1.01,1.02|</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0.9972105</v>
+        <v>1.02535</v>
       </c>
       <c r="C408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.97,0.98|1.016,1.017|</t>
+          <t>1.01,1.02|0.99,1.00|0.97,0.98|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1.06222</v>
+        <v>0.988671</v>
       </c>
       <c r="C409" t="n">
         <v>1</v>
@@ -5677,37 +5677,37 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>1.03,1.04|1.01,1.02|1.032,1.033|</t>
+          <t>1.00,1.01|0.96,0.97|1.00,1.01|0.96,0.97|1.00,1.01|</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0.99096</v>
+        <v>1.000985</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>1.03,1.04|0.99,1.00|0.995,0.996|</t>
+          <t>1.00,1.01|0.97,0.98|1.00,1.01|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1.01023</v>
+        <v>0.9901936666666667</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.01,1.02|0.986,0.987|</t>
+          <t>1.01,1.02|0.95,0.96|1.00,1.01|0.95,0.96|1.02,1.03|</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0.986869</v>
+        <v>1</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -5716,11 +5716,11 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.014,1.015|</t>
+          <t>1.00,1.01|1.00,1.01|0.93,0.94|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1.02663</v>
+        <v>1.00411</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -5729,24 +5729,24 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.999,1.000|</t>
+          <t>0.98,0.99|0.97,0.98|1.02,1.03|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1.0083465</v>
+        <v>0.99458</v>
       </c>
       <c r="C414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|0.979,0.980|</t>
+          <t>0.98,0.99|1.02,1.03|1.01,1.02|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0.99157</v>
+        <v>0.997996</v>
       </c>
       <c r="C415" t="n">
         <v>1</v>
@@ -5755,11 +5755,11 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.96,0.97|0.986,0.987|</t>
+          <t>0.96,0.97|1.04,1.05|0.99,1.00|1.04,1.05|1.03,1.04|</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0.996128</v>
+        <v>1.04143</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5768,24 +5768,24 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|1.013,1.014|</t>
+          <t>1.04,1.05|0.96,0.97|0.97,0.98|0.96,0.97|1.04,1.05|</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1.007765</v>
+        <v>1.05219</v>
       </c>
       <c r="C417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|1.000,1.001|</t>
+          <t>1.01,1.02|1.02,1.03|0.99,1.00|1.02,1.03|0.98,0.99|</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0.981959</v>
+        <v>1.02047</v>
       </c>
       <c r="C418" t="n">
         <v>1</v>
@@ -5794,11 +5794,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>1.06,1.07|1.01,1.02|0.980,0.981|</t>
+          <t>1.03,1.04|0.99,1.00|0.99,1.00|0.99,1.00|1.05,1.06|</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0.983962</v>
+        <v>0.996337</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5807,24 +5807,24 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.01,1.02|0.972,0.973|</t>
+          <t>0.98,0.99|0.97,0.98|1.01,1.02|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.9872879999999999</v>
+        <v>0.995872</v>
       </c>
       <c r="C420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.992,0.993|</t>
+          <t>0.96,0.97|1.05,1.06|1.00,1.01|1.05,1.06|1.02,1.03|</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0.987047</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
         <v>1</v>
@@ -5833,11 +5833,11 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|1.008,1.009|</t>
+          <t>1.00,1.01|1.02,1.03|1.00,1.01|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0.992048</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5846,11 +5846,11 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.93,0.94|0.986,0.987|</t>
+          <t>0.99,1.00|1.02,1.03|0.98,0.99|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1.01033</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5859,24 +5859,24 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|1.005,1.006|</t>
+          <t>1.01,1.02|1.02,1.03|0.99,1.00|1.02,1.03|1.02,1.03|</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0.9770570000000001</v>
+        <v>1</v>
       </c>
       <c r="C424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.984,0.985|</t>
+          <t>0.99,1.00|0.89,0.90|0.99,1.00|0.89,0.90|1.05,1.06|</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0.966463</v>
+        <v>0.977432</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5885,11 +5885,11 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.02,1.03|0.940,0.941|</t>
+          <t>1.02,1.03|1.00,1.01|0.96,0.97|1.00,1.01|1.02,1.03|</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0.9812</v>
+        <v>0.990282</v>
       </c>
       <c r="C426" t="n">
         <v>1</v>
@@ -5898,11 +5898,11 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|1.005,1.006|</t>
+          <t>0.99,1.00|1.06,1.07|1.00,1.01|1.06,1.07|1.00,1.01|</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0.997375</v>
+        <v>0.986916</v>
       </c>
       <c r="C427" t="n">
         <v>1</v>
@@ -5911,24 +5911,24 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|1.013,1.014|</t>
+          <t>1.00,1.01|0.97,0.98|1.01,1.02|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0.9918615</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.984,0.985|</t>
+          <t>1.04,1.05|1.02,1.03|0.92,0.93|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>1.01604</v>
+        <v>0.974654</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -5937,11 +5937,11 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|0.982,0.983|</t>
+          <t>1.01,1.02|1.03,1.04|0.98,0.99|1.03,1.04|1.03,1.04|</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.998746</v>
+        <v>0.999375</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -5950,11 +5950,11 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.04,1.05|1.002,1.003|</t>
+          <t>0.99,1.00|1.01,1.02|1.03,1.04|1.01,1.02|0.99,1.00|</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.993135</v>
+        <v>1.01176</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -5963,11 +5963,11 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.98,0.99|0.986,0.987|</t>
+          <t>0.99,1.00|1.01,1.02|0.99,1.00|1.01,1.02|1.02,1.03|</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1.01824</v>
+        <v>1.00672</v>
       </c>
       <c r="C432" t="n">
         <v>1</v>
@@ -5976,11 +5976,11 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.029,1.030|</t>
+          <t>0.98,0.99|0.97,0.98|1.00,1.01|0.97,0.98|1.02,1.03|</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1.02292</v>
+        <v>0.985075</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -5989,24 +5989,24 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|1.023,1.024|</t>
+          <t>1.00,1.01|0.98,0.99|0.99,1.00|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1.00604</v>
+        <v>0.9959925000000001</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.01,1.02|0.999,1.000|</t>
+          <t>0.98,0.99|0.98,0.99|1.00,1.01|0.98,0.99|1.02,1.03|</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1.01267</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
         <v>1</v>
@@ -6015,11 +6015,11 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.013,1.014|</t>
+          <t>0.92,0.93|1.01,1.02|0.96,0.97|1.01,1.02|1.05,1.06|</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.996602</v>
+        <v>0.990868</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -6028,11 +6028,11 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.04,1.05|0.994,0.995|</t>
+          <t>0.99,1.00|0.98,0.99|0.99,1.00|0.98,0.99|0.97,0.98|</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>1.00849</v>
+        <v>1.00415</v>
       </c>
       <c r="C437" t="n">
         <v>1</v>
@@ -6041,11 +6041,11 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.98,0.99|1.002,1.003|</t>
+          <t>0.98,0.99|0.95,0.96|0.99,1.00|0.95,0.96|1.01,1.02|</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>1.01309</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
         <v>1</v>
@@ -6054,11 +6054,11 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.01,1.02|0.993,0.994|</t>
+          <t>1.01,1.02|0.99,1.00|0.99,1.00|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1.00431</v>
+        <v>1.0361</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -6067,11 +6067,11 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.97,0.98|0.999,1.000|</t>
+          <t>0.99,1.00|1.00,1.01|1.02,1.03|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1.02091</v>
+        <v>0.998047</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -6080,11 +6080,11 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>0.95,0.96|0.98,0.99|0.898,0.899|</t>
+          <t>1.00,1.01|1.01,1.02|0.96,0.97|1.01,1.02|1.03,1.04|</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.999285</v>
+        <v>0.987437</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -6093,24 +6093,24 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|1.004,1.005|</t>
+          <t>1.02,1.03|1.00,1.01|0.98,0.99|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0.999143</v>
+        <v>1.00583</v>
       </c>
       <c r="C442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.997,0.998|</t>
+          <t>0.99,1.00|0.98,0.99|0.98,0.99|0.98,0.99|1.02,1.03|</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0.987745</v>
+        <v>1.00602</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -6119,11 +6119,11 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.96,0.97|1.009,1.010|</t>
+          <t>1.01,1.02|1.01,1.02|0.97,0.98|1.01,1.02|1.08,1.09|</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1.0405</v>
+        <v>1.05695</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -6132,11 +6132,11 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.979,0.980|</t>
+          <t>0.99,1.00|1.02,1.03|1.00,1.01|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0.99458</v>
+        <v>0.989873</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -6145,11 +6145,11 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.999,1.000|</t>
+          <t>1.01,1.02|0.96,0.97|1.00,1.01|0.96,0.97|1.03,1.04|</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0.977128</v>
+        <v>1.00736</v>
       </c>
       <c r="C446" t="n">
         <v>1</v>
@@ -6158,24 +6158,24 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.996,0.997|</t>
+          <t>1.00,1.01|0.99,1.00|1.01,1.02|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0.994945</v>
+        <v>0.9950753333333333</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.97,0.98|0.982,0.983|</t>
+          <t>1.01,1.02|1.01,1.02|0.97,0.98|1.01,1.02|1.02,1.03|</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1.02067</v>
+        <v>1.01267</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -6184,11 +6184,11 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.006,1.007|</t>
+          <t>1.00,1.01|1.00,1.01|1.00,1.01|1.00,1.01|0.99,1.00|</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0.995676</v>
+        <v>0.996286</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -6197,11 +6197,11 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>1.05,1.06|1.02,1.03|0.974,0.975|</t>
+          <t>0.95,0.96|1.00,1.01|1.01,1.02|1.00,1.01|0.98,0.99|</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1.02407</v>
+        <v>1.02347</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -6210,11 +6210,11 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.014,1.015|</t>
+          <t>1.03,1.04|0.99,1.00|1.01,1.02|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1.00185</v>
+        <v>1.06246</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -6223,24 +6223,24 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.000,1.001|</t>
+          <t>1.00,1.01|0.97,0.98|0.91,0.92|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0.9913522499999999</v>
+        <v>1.02067</v>
       </c>
       <c r="C452" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>1.05,1.06|1.01,1.02|0.999,1.000|</t>
+          <t>0.99,1.00|1.00,1.01|0.96,0.97|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>1.00564</v>
+        <v>1.01295</v>
       </c>
       <c r="C453" t="n">
         <v>1</v>
@@ -6249,24 +6249,24 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.000,1.001|</t>
+          <t>0.99,1.00|1.01,1.02|1.01,1.02|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0.955556</v>
+        <v>0.999984</v>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.035,1.036|</t>
+          <t>1.01,1.02|0.97,0.98|0.95,0.96|0.97,0.98|1.04,1.05|</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0.986991</v>
+        <v>0.998016</v>
       </c>
       <c r="C455" t="n">
         <v>1</v>
@@ -6275,24 +6275,24 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.98,0.99|1.011,1.012|</t>
+          <t>0.90,0.91|0.95,0.96|0.99,1.00|0.95,0.96|1.00,1.01|</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0.9930225</v>
+        <v>1.00923</v>
       </c>
       <c r="C456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.025,1.026|</t>
+          <t>0.97,0.98|0.99,1.00|0.94,0.95|0.99,1.00|1.07,1.08|</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1.0128</v>
+        <v>0.983962</v>
       </c>
       <c r="C457" t="n">
         <v>1</v>
@@ -6301,11 +6301,11 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|0.981,0.982|</t>
+          <t>1.00,1.01|0.96,0.97|1.03,1.04|0.96,0.97|1.00,1.01|</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0.990107</v>
+        <v>0.976501</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -6314,24 +6314,24 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.012,1.013|</t>
+          <t>1.01,1.02|1.01,1.02|0.99,1.00|1.01,1.02|0.99,1.00|</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0.9960765</v>
+        <v>1.00795</v>
       </c>
       <c r="C459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.975,0.976|</t>
+          <t>1.00,1.01|1.02,1.03|0.98,0.99|1.02,1.03|0.99,1.00|</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0.999019</v>
+        <v>0.999131</v>
       </c>
       <c r="C460" t="n">
         <v>1</v>
@@ -6340,11 +6340,11 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.031,1.032|</t>
+          <t>0.98,0.99|1.01,1.02|1.02,1.03|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0.989873</v>
+        <v>1.00263</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -6353,24 +6353,24 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.010,1.011|</t>
+          <t>0.98,0.99|1.01,1.02|1.00,1.01|1.01,1.02|1.01,1.02|</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0.9936666666666668</v>
+        <v>1.02663</v>
       </c>
       <c r="C462" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.986,0.987|</t>
+          <t>0.99,1.00|1.02,1.03|1.02,1.03|1.02,1.03|1.02,1.03|</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1.00235</v>
+        <v>0.991672</v>
       </c>
       <c r="C463" t="n">
         <v>1</v>
@@ -6379,11 +6379,11 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.011,1.012|</t>
+          <t>0.96,0.97|0.99,1.00|1.00,1.01|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1.00521</v>
+        <v>0.9947730000000001</v>
       </c>
       <c r="C464" t="n">
         <v>2</v>
@@ -6392,11 +6392,11 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>0.96,0.97|1.00,1.01|0.912,0.913|</t>
+          <t>1.02,1.03|1.01,1.02|1.01,1.02|1.01,1.02|1.01,1.02|</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1.00777</v>
+        <v>1.00738</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -6405,11 +6405,11 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.040,1.041|</t>
+          <t>1.03,1.04|0.99,1.00|0.99,1.00|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0.9825</v>
+        <v>1.01279</v>
       </c>
       <c r="C466" t="n">
         <v>1</v>
@@ -6418,11 +6418,11 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.001,1.002|</t>
+          <t>0.98,0.99|1.00,1.01|0.99,1.00|1.00,1.01|0.99,1.00|</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0.9990830000000001</v>
+        <v>0.996945</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -6431,24 +6431,24 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.992,0.993|</t>
+          <t>0.99,1.00|1.01,1.02|1.00,1.01|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1.004004</v>
+        <v>0.9883356000000001</v>
       </c>
       <c r="C468" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>1.03,1.04|0.99,1.00|1.041,1.042|</t>
+          <t>1.00,1.01|0.98,0.99|0.99,1.00|0.98,0.99|1.01,1.02|</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0.979117</v>
+        <v>1.00199</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -6457,11 +6457,11 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.97,0.98|1.002,1.003|</t>
+          <t>1.01,1.02|1.03,1.04|0.96,0.97|1.03,1.04|1.00,1.01|</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0.9707789999999999</v>
+        <v>1.06949</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -6470,11 +6470,11 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.023,1.024|</t>
+          <t>0.98,0.99|0.95,0.96|1.00,1.01|0.95,0.96|1.00,1.01|</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1.02388</v>
+        <v>1.021</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -6483,11 +6483,11 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.981,0.982|</t>
+          <t>1.06,1.07|0.96,0.97|1.00,1.01|0.96,0.97|1.04,1.05|</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0.997416</v>
+        <v>0.994302</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -6496,11 +6496,11 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|0.996,0.997|</t>
+          <t>1.02,1.03|1.00,1.01|1.01,1.02|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>1.01468</v>
+        <v>0.9927009999999999</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -6509,11 +6509,11 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.987,0.988|</t>
+          <t>1.03,1.04|0.98,0.99|1.00,1.01|0.98,0.99|0.99,1.00|</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1.00789</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -6522,24 +6522,24 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.96,0.97|1.025,1.026|</t>
+          <t>1.00,1.01|0.99,1.00|0.97,0.98|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1.01382</v>
+        <v>1.011027</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>0.89,0.90|1.00,1.01|0.990,0.991|</t>
+          <t>0.97,0.98|0.90,0.91|1.04,1.05|0.90,0.91|1.02,1.03|</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0.898719</v>
+        <v>0.967419</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -6548,11 +6548,11 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.01,1.02|0.998,0.999|</t>
+          <t>1.00,1.01|1.00,1.01|1.01,1.02|1.00,1.01|1.02,1.03|</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1.01134</v>
+        <v>0.992297</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -6561,24 +6561,24 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.970,0.971|</t>
+          <t>0.99,1.00|1.00,1.01|1.00,1.01|1.00,1.01|1.01,1.02|</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>1.01114</v>
+        <v>0.9966724000000001</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>0.96,0.97|1.00,1.01|1.000,1.001|</t>
+          <t>1.00,1.01|0.94,0.95|0.99,1.00|0.94,0.95|1.00,1.01|</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0.996945</v>
+        <v>1.00093</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -6587,11 +6587,11 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|0.997,0.998|</t>
+          <t>1.02,1.03|0.98,0.99|0.99,1.00|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1</v>
+        <v>1.01468</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -6600,24 +6600,24 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.002,1.003|</t>
+          <t>1.00,1.01|1.02,1.03|0.98,0.99|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1.0022</v>
+        <v>1.0099</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.997,0.998|</t>
+          <t>0.97,0.98|1.02,1.03|1.00,1.01|1.02,1.03|1.01,1.02|</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1.02284</v>
+        <v>0.977245</v>
       </c>
       <c r="C482" t="n">
         <v>1</v>
@@ -6626,11 +6626,11 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|0.989,0.990|</t>
+          <t>1.00,1.01|1.03,1.04|0.98,0.99|1.03,1.04|0.98,0.99|</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0.998047</v>
+        <v>0.987113</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -6639,24 +6639,24 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.01,1.02|0.978,0.979|</t>
+          <t>1.00,1.01|0.99,1.00|1.02,1.03|0.99,1.00|1.02,1.03|</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1.0084</v>
+        <v>1.004</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>1.02,1.03|0.96,0.97|0.992,0.993|</t>
+          <t>0.97,0.98|1.02,1.03|1.00,1.01|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1.01923</v>
+        <v>1.00256</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -6665,11 +6665,11 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.955,0.956|</t>
+          <t>1.02,1.03|1.01,1.02|0.97,0.98|1.01,1.02|1.01,1.02|</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0.99566</v>
+        <v>0.979409</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -6678,11 +6678,11 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.974,0.975|</t>
+          <t>0.97,0.98|0.99,1.00|0.98,0.99|0.99,1.00|0.99,1.00|</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0.9766359999999999</v>
+        <v>1.02533</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -6691,24 +6691,24 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.977,0.978|</t>
+          <t>0.99,1.00|0.99,1.00|1.00,1.01|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0.9863455</v>
+        <v>0.9627790000000001</v>
       </c>
       <c r="C488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.02,1.03|0.999,1.000|</t>
+          <t>1.00,1.01|0.97,0.98|0.99,1.00|0.97,0.98|1.01,1.02|</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0.982615</v>
+        <v>1.01053</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -6717,11 +6717,11 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|0.963,0.964|</t>
+          <t>0.98,0.99|1.00,1.01|1.00,1.01|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1.00199</v>
+        <v>0.997475</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -6730,24 +6730,24 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|0.974,0.975|</t>
+          <t>1.00,1.01|0.99,1.00|1.02,1.03|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0.995748</v>
+        <v>0.9965014999999999</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>1.04,1.05|0.98,0.99|1.010,1.011|</t>
+          <t>0.99,1.00|0.98,0.99|0.96,0.97|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0.996337</v>
+        <v>0.991543</v>
       </c>
       <c r="C492" t="n">
         <v>1</v>
@@ -6756,50 +6756,50 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.03,1.04|0.990,0.991|</t>
+          <t>0.98,0.99|0.99,1.00|1.00,1.01|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0.988608</v>
+        <v>1.010066666666667</v>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.99,1.00|0.984,0.985|</t>
+          <t>0.98,0.99|1.01,1.02|0.98,0.99|1.01,1.02|1.00,1.01|</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>1.01532</v>
+        <v>1.001641</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>1.04,1.05|1.01,1.02|0.966,0.967|</t>
+          <t>0.97,0.98|1.00,1.01|1.01,1.02|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0.991018</v>
+        <v>0.9954115</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|1.001,1.002|</t>
+          <t>1.01,1.02|1.03,1.04|1.03,1.04|1.03,1.04|1.00,1.01|</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>1.03248</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -6808,11 +6808,11 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.03,1.04|1.001,1.002|</t>
+          <t>0.98,0.99|1.01,1.02|0.98,0.99|1.01,1.02|0.99,1.00|</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0.962441</v>
+        <v>1.01134</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -6821,24 +6821,24 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.95,0.96|1.013,1.014|</t>
+          <t>1.01,1.02|0.96,0.97|0.98,0.99|0.96,0.97|1.00,1.01|</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1.00197</v>
+        <v>0.957106</v>
       </c>
       <c r="C498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.006,1.007|</t>
+          <t>1.01,1.02|1.06,1.07|1.02,1.03|1.06,1.07|1.00,1.01|</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0.993217</v>
+        <v>1.03138</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -6847,11 +6847,11 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|0.976,0.977|</t>
+          <t>0.99,1.00|0.97,0.98|1.00,1.01|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1.05234</v>
+        <v>1.03166</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -6860,11 +6860,11 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.98,0.99|0.997,0.998|</t>
+          <t>0.96,0.97|1.05,1.06|1.03,1.04|1.05,1.06|0.99,1.00|</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>1.00297</v>
       </c>
       <c r="C501" t="n">
         <v>1</v>
@@ -6873,24 +6873,24 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.95,0.96|0.989,0.990|</t>
+          <t>0.99,1.00|1.00,1.01|1.00,1.01|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0.990694</v>
+        <v>0.9965815</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.01,1.02|0.991,0.992|</t>
+          <t>0.99,1.00|0.99,1.00|0.99,1.00|0.99,1.00|1.01,1.02|</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1.00198</v>
+        <v>0.983333</v>
       </c>
       <c r="C503" t="n">
         <v>1</v>
@@ -6899,11 +6899,11 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>1.03,1.04|0.99,1.00|1.048,1.049|</t>
+          <t>0.95,0.96|1.02,1.03|0.97,0.98|1.02,1.03|1.00,1.01|</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1.01484</v>
+        <v>1.03596</v>
       </c>
       <c r="C504" t="n">
         <v>1</v>
@@ -6912,11 +6912,11 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.998,0.999|</t>
+          <t>0.98,0.99|0.97,0.98|1.00,1.01|0.97,0.98|1.00,1.01|</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0.996124</v>
+        <v>1.01749</v>
       </c>
       <c r="C505" t="n">
         <v>1</v>
@@ -6925,11 +6925,11 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>0.91,0.92|0.99,1.00|0.979,0.980|</t>
+          <t>1.00,1.01|1.01,1.02|1.00,1.01|1.01,1.02|1.05,1.06|</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1.00758</v>
+        <v>1.00564</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -6938,24 +6938,24 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.997,0.998|</t>
+          <t>0.99,1.00|1.00,1.01|1.01,1.02|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1.00904</v>
+        <v>0.9969575000000001</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.02,1.03|0.997,0.998|</t>
+          <t>0.99,1.00|0.98,0.99|1.00,1.01|0.98,0.99|1.00,1.01|</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1.00128</v>
+        <v>0.999232</v>
       </c>
       <c r="C508" t="n">
         <v>2</v>
@@ -6964,11 +6964,11 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.05,1.06|0.983,0.984|</t>
+          <t>0.99,1.00|0.99,1.00|1.02,1.03|0.99,1.00|1.00,1.01|</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1.01031</v>
+        <v>1.00382</v>
       </c>
       <c r="C509" t="n">
         <v>1</v>
@@ -6977,11 +6977,11 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.976,0.977|</t>
+          <t>1.01,1.02|1.03,1.04|1.00,1.01|1.03,1.04|1.00,1.01|</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1.02105</v>
+        <v>0.997573</v>
       </c>
       <c r="C510" t="n">
         <v>1</v>
@@ -6990,11 +6990,11 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.99,1.00|0.982,0.983|</t>
+          <t>1.06,1.07|0.95,0.96|1.01,1.02|0.95,0.96|1.00,1.01|</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>1.0102</v>
+        <v>0.991098</v>
       </c>
       <c r="C511" t="n">
         <v>1</v>
@@ -7003,11 +7003,11 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.03,1.04|1.014,1.015|</t>
+          <t>0.97,0.98|1.08,1.09|0.99,1.00|1.08,1.09|1.05,1.06|</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>1.00798</v>
+        <v>0.995014</v>
       </c>
       <c r="C512" t="n">
         <v>1</v>
@@ -7016,11 +7016,11 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>1.03,1.04|0.96,0.97|1.014,1.015|</t>
+          <t>0.99,1.00|0.94,0.95|0.99,1.00|0.94,0.95|1.01,1.02|</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0.998016</v>
+        <v>0.99566</v>
       </c>
       <c r="C513" t="n">
         <v>1</v>
@@ -7029,11 +7029,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.02,1.03|1.010,1.011|</t>
+          <t>0.99,1.00|1.03,1.04|0.96,0.97|1.03,1.04|1.01,1.02|</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0.9594200000000001</v>
+        <v>1.01794</v>
       </c>
       <c r="C514" t="n">
         <v>1</v>
@@ -7042,11 +7042,11 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>0.92,0.93|0.96,0.97|0.990,0.991|</t>
+          <t>0.97,0.98|1.00,1.01|1.04,1.05|1.00,1.01|1.00,1.01|</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1.04049</v>
+        <v>1.00574</v>
       </c>
       <c r="C515" t="n">
         <v>1</v>
@@ -7055,663 +7055,13 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>0.99,1.00|0.99,1.00|0.984,0.985|</t>
+          <t>0.97,0.98|0.94,0.95|1.02,1.03|0.94,0.95|1.03,1.04|</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>1.01053</v>
+        <v>0.966716</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>1.00,1.01|0.97,0.98|0.981,0.982|</t>
-        </is>
-      </c>
-      <c r="B517" t="n">
-        <v>1.02535</v>
-      </c>
-      <c r="C517" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>0.99,1.00|1.00,1.01|0.971,0.972|</t>
-        </is>
-      </c>
-      <c r="B518" t="n">
-        <v>0.994571</v>
-      </c>
-      <c r="C518" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>0.98,0.99|1.01,1.02|1.002,1.003|</t>
-        </is>
-      </c>
-      <c r="B519" t="n">
-        <v>0.973316</v>
-      </c>
-      <c r="C519" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>1.01,1.02|0.98,0.99|0.981,0.982|</t>
-        </is>
-      </c>
-      <c r="B520" t="n">
-        <v>0.974865</v>
-      </c>
-      <c r="C520" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>0.99,1.00|0.99,1.00|1.015,1.016|</t>
-        </is>
-      </c>
-      <c r="B521" t="n">
-        <v>1.0026</v>
-      </c>
-      <c r="C521" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>1.00,1.01|0.98,0.99|0.966,0.967|</t>
-        </is>
-      </c>
-      <c r="B522" t="n">
-        <v>1.03325</v>
-      </c>
-      <c r="C522" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>1.02,1.03|0.97,0.98|0.996,0.997|</t>
-        </is>
-      </c>
-      <c r="B523" t="n">
-        <v>1.00211</v>
-      </c>
-      <c r="C523" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>1.01,1.02|0.99,1.00|1.006,1.007|</t>
-        </is>
-      </c>
-      <c r="B524" t="n">
-        <v>0.982537</v>
-      </c>
-      <c r="C524" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>1.01,1.02|0.97,0.98|1.024,1.025|</t>
-        </is>
-      </c>
-      <c r="B525" t="n">
-        <v>0.970109</v>
-      </c>
-      <c r="C525" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>1.00,1.01|1.02,1.03|1.002,1.003|</t>
-        </is>
-      </c>
-      <c r="B526" t="n">
-        <v>0.984576</v>
-      </c>
-      <c r="C526" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>0.98,0.99|1.01,1.02|1.031,1.032|</t>
-        </is>
-      </c>
-      <c r="B527" t="n">
-        <v>1.04866</v>
-      </c>
-      <c r="C527" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>0.99,1.00|0.99,1.00|1.017,1.018|</t>
-        </is>
-      </c>
-      <c r="B528" t="n">
-        <v>0.998018</v>
-      </c>
-      <c r="C528" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>0.96,0.97|1.00,1.01|1.033,1.034|</t>
-        </is>
-      </c>
-      <c r="B529" t="n">
-        <v>1.00813</v>
-      </c>
-      <c r="C529" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>0.99,1.00|0.97,0.98|1.005,1.006|</t>
-        </is>
-      </c>
-      <c r="B530" t="n">
-        <v>1.0285</v>
-      </c>
-      <c r="C530" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>1.00,1.01|0.99,1.00|0.993,0.994|</t>
-        </is>
-      </c>
-      <c r="B531" t="n">
-        <v>0.9840950000000001</v>
-      </c>
-      <c r="C531" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>0.98,0.99|0.98,0.99|1.020,1.021|</t>
-        </is>
-      </c>
-      <c r="B532" t="n">
-        <v>1.01642</v>
-      </c>
-      <c r="C532" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>1.02,1.03|1.00,1.01|0.984,0.985|</t>
-        </is>
-      </c>
-      <c r="B533" t="n">
-        <v>0.997085</v>
-      </c>
-      <c r="C533" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>1.00,1.01|0.98,0.99|1.007,1.008|</t>
-        </is>
-      </c>
-      <c r="B534" t="n">
-        <v>1.000384</v>
-      </c>
-      <c r="C534" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>1.02,1.03|0.99,1.00|0.998,0.999|</t>
-        </is>
-      </c>
-      <c r="B535" t="n">
-        <v>0.986654</v>
-      </c>
-      <c r="C535" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>0.99,1.00|1.02,1.03|0.977,0.978|</t>
-        </is>
-      </c>
-      <c r="B536" t="n">
-        <v>1</v>
-      </c>
-      <c r="C536" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>1.00,1.01|0.98,0.99|0.994,0.995|</t>
-        </is>
-      </c>
-      <c r="B537" t="n">
-        <v>1.00652</v>
-      </c>
-      <c r="C537" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>0.99,1.00|0.97,0.98|0.983,0.984|</t>
-        </is>
-      </c>
-      <c r="B538" t="n">
-        <v>0.991098</v>
-      </c>
-      <c r="C538" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>1.00,1.01|0.98,0.99|0.976,0.977|</t>
-        </is>
-      </c>
-      <c r="B539" t="n">
-        <v>0.972851</v>
-      </c>
-      <c r="C539" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>0.98,0.99|0.99,1.00|0.988,0.989|</t>
-        </is>
-      </c>
-      <c r="B540" t="n">
-        <v>1</v>
-      </c>
-      <c r="C540" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>1.05,1.06|1.01,1.02|0.995,0.996|</t>
-        </is>
-      </c>
-      <c r="B541" t="n">
-        <v>1.05695</v>
-      </c>
-      <c r="C541" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>0.99,1.00|0.99,1.00|0.994,0.995|</t>
-        </is>
-      </c>
-      <c r="B542" t="n">
-        <v>0.992516</v>
-      </c>
-      <c r="C542" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>0.98,0.99|1.06,1.07|1.012,1.013|</t>
-        </is>
-      </c>
-      <c r="B543" t="n">
-        <v>0.970278</v>
-      </c>
-      <c r="C543" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>0.95,0.96|0.99,1.00|0.997,0.998|</t>
-        </is>
-      </c>
-      <c r="B544" t="n">
-        <v>0.991387</v>
-      </c>
-      <c r="C544" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>0.90,0.91|0.99,1.00|0.994,0.995|</t>
-        </is>
-      </c>
-      <c r="B545" t="n">
-        <v>0.96793</v>
-      </c>
-      <c r="C545" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>1.02,1.03|1.00,1.01|1.011,1.012|</t>
-        </is>
-      </c>
-      <c r="B546" t="n">
-        <v>1.01337</v>
-      </c>
-      <c r="C546" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>0.99,1.00|1.00,1.01|1.020,1.021|</t>
-        </is>
-      </c>
-      <c r="B547" t="n">
-        <v>1.00319</v>
-      </c>
-      <c r="C547" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>1.00,1.01|1.03,1.04|1.000,1.001|</t>
-        </is>
-      </c>
-      <c r="B548" t="n">
-        <v>0.97733</v>
-      </c>
-      <c r="C548" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>0.99,1.00|1.02,1.03|0.987,0.988|</t>
-        </is>
-      </c>
-      <c r="B549" t="n">
-        <v>1.01295</v>
-      </c>
-      <c r="C549" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>1.01,1.02|0.99,1.00|1.023,1.024|</t>
-        </is>
-      </c>
-      <c r="B550" t="n">
-        <v>1.02312</v>
-      </c>
-      <c r="C550" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>1.00,1.01|1.00,1.01|0.986,0.987|</t>
-        </is>
-      </c>
-      <c r="B551" t="n">
-        <v>0.9880525</v>
-      </c>
-      <c r="C551" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>0.98,0.99|1.02,1.03|0.995,0.996|</t>
-        </is>
-      </c>
-      <c r="B552" t="n">
-        <v>1.00161</v>
-      </c>
-      <c r="C552" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>1.02,1.03|1.00,1.01|1.027,1.028|</t>
-        </is>
-      </c>
-      <c r="B553" t="n">
-        <v>0.999375</v>
-      </c>
-      <c r="C553" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>0.98,0.99|1.00,1.01|1.004,1.005|</t>
-        </is>
-      </c>
-      <c r="B554" t="n">
-        <v>1.00654</v>
-      </c>
-      <c r="C554" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>1.02,1.03|1.01,1.02|0.994,0.995|</t>
-        </is>
-      </c>
-      <c r="B555" t="n">
-        <v>0.996842</v>
-      </c>
-      <c r="C555" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>0.96,0.97|0.98,0.99|1.005,1.006|</t>
-        </is>
-      </c>
-      <c r="B556" t="n">
-        <v>1.00879</v>
-      </c>
-      <c r="C556" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>1.01,1.02|0.97,0.98|1.008,1.009|</t>
-        </is>
-      </c>
-      <c r="B557" t="n">
-        <v>1.00943</v>
-      </c>
-      <c r="C557" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>0.98,0.99|1.01,1.02|1.023,1.024|</t>
-        </is>
-      </c>
-      <c r="B558" t="n">
-        <v>0.992295</v>
-      </c>
-      <c r="C558" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>0.97,0.98|1.00,1.01|0.980,0.981|</t>
-        </is>
-      </c>
-      <c r="B559" t="n">
-        <v>1.00698</v>
-      </c>
-      <c r="C559" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>1.02,1.03|1.00,1.01|1.002,1.003|</t>
-        </is>
-      </c>
-      <c r="B560" t="n">
-        <v>0.987124</v>
-      </c>
-      <c r="C560" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>1.01,1.02|0.98,0.99|0.990,0.991|</t>
-        </is>
-      </c>
-      <c r="B561" t="n">
-        <v>0.971971</v>
-      </c>
-      <c r="C561" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>0.95,0.96|1.04,1.05|0.986,0.987|</t>
-        </is>
-      </c>
-      <c r="B562" t="n">
-        <v>0.969796</v>
-      </c>
-      <c r="C562" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>1.00,1.01|1.01,1.02|0.988,0.989|</t>
-        </is>
-      </c>
-      <c r="B563" t="n">
-        <v>0.9816309999999999</v>
-      </c>
-      <c r="C563" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>1.01,1.02|0.99,1.00|1.005,1.006|</t>
-        </is>
-      </c>
-      <c r="B564" t="n">
-        <v>1</v>
-      </c>
-      <c r="C564" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>1.02,1.03|0.99,1.00|0.997,0.998|</t>
-        </is>
-      </c>
-      <c r="B565" t="n">
-        <v>0.99832</v>
-      </c>
-      <c r="C565" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>1.03,1.04|0.99,1.00|1.007,1.008|</t>
-        </is>
-      </c>
-      <c r="B566" t="n">
-        <v>0.992462</v>
-      </c>
-      <c r="C566" t="n">
         <v>1</v>
       </c>
     </row>
